--- a/CSSCI期刊.xlsx
+++ b/CSSCI期刊.xlsx
@@ -754,8 +754,10 @@
           <t>11-4054/D</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>32</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -777,8 +779,10 @@
           <t>11-3171/D</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -800,8 +804,10 @@
           <t>11-2878/G4</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -824,7 +830,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">

--- a/CSSCI期刊.xlsx
+++ b/CSSCI期刊.xlsx
@@ -829,8 +829,10 @@
           <t>11-2493/G3</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>71</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -852,8 +854,10 @@
           <t>14-1066/G2</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -875,8 +879,10 @@
           <t>51-1104/F</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -898,8 +904,10 @@
           <t>43-1057/F</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>1</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -921,8 +929,10 @@
           <t>33-1388/F</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>1</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -944,8 +954,10 @@
           <t>21-1096/F</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -967,8 +979,10 @@
           <t>31-1012/F</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>1</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -990,8 +1004,10 @@
           <t>11-1166/F</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1013,8 +1029,10 @@
           <t>34-1093/F</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>1</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1036,8 +1054,10 @@
           <t>11-1077/F</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>1</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1059,8 +1079,10 @@
           <t>32-1683/F</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1082,8 +1104,10 @@
           <t>42-1320/X</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1105,8 +1129,10 @@
           <t>51-1097/G8</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1128,8 +1154,10 @@
           <t>11-3504/TU</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1151,8 +1179,10 @@
           <t>11-2378/TU</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>1</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1174,8 +1204,10 @@
           <t>31-1938/TU</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>1</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1197,8 +1229,10 @@
           <t>11-1119/C</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>1</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1220,8 +1254,10 @@
           <t>50-1023/C</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>1</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1243,8 +1279,10 @@
           <t>11-1537/G2</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>1</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1266,8 +1304,10 @@
           <t>42-1618/G2</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>1</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1289,8 +1329,10 @@
           <t>31-2170/K</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>1</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1312,8 +1354,10 @@
           <t>21-1383/C</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>1</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1335,8 +1379,10 @@
           <t>43-1398/G4</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>1</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1358,8 +1404,10 @@
           <t>11-2952/G2</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>1</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1381,8 +1429,10 @@
           <t>36-1030/F</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>1</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1404,8 +1454,10 @@
           <t>65-1201/G2</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>1</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1427,8 +1479,10 @@
           <t>11-1447/G2</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1450,8 +1504,10 @@
           <t>22-1051/D</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>1</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1473,8 +1529,10 @@
           <t>61-1400/F</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>1</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1496,8 +1554,10 @@
           <t>11-3535/D</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>1</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1519,8 +1579,10 @@
           <t>37-1065/D</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>1</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1542,8 +1604,10 @@
           <t>11-3404/D</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>1</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1565,8 +1629,10 @@
           <t>32-1087/I</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>1</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1588,8 +1654,10 @@
           <t>51-1076/I</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>1</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1611,8 +1679,10 @@
           <t>31-2043/H</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>1</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1634,8 +1704,10 @@
           <t>11-3706/C</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>1</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1657,8 +1729,10 @@
           <t>11-3879/H</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1680,8 +1754,10 @@
           <t>11-3200/K</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1703,8 +1779,10 @@
           <t>21-1046/I</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1726,8 +1804,10 @@
           <t>11-1359/D</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>1</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1749,8 +1829,10 @@
           <t>11-1612/D</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1772,8 +1854,10 @@
           <t>35-1059/A</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>1</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1795,8 +1879,10 @@
           <t>11-1450/G2</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>1</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1818,8 +1904,10 @@
           <t>11-1226/G2</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>1</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1841,8 +1929,10 @@
           <t>12-1029/B</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>1</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1864,8 +1954,10 @@
           <t>31-2032/C</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>1</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1887,8 +1979,10 @@
           <t>22-1124/P</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>1</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1910,8 +2004,10 @@
           <t>11-3858/P</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>1</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
     </row>
     <row r="64">

--- a/CSSCI期刊.xlsx
+++ b/CSSCI期刊.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E614"/>
+  <dimension ref="A1:F614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Pages</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +489,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -509,6 +515,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -534,6 +541,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -559,6 +567,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +593,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -609,6 +619,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -634,6 +645,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -659,6 +671,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -684,6 +697,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -709,6 +723,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -734,6 +749,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -759,6 +775,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -784,6 +801,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -809,6 +827,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -834,6 +853,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -859,6 +879,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -884,6 +905,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -909,6 +931,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -934,6 +957,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -959,6 +983,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -984,6 +1009,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1009,6 +1035,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1034,6 +1061,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1059,6 +1087,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1084,6 +1113,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1109,6 +1139,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1134,6 +1165,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1159,6 +1191,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1184,6 +1217,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1209,6 +1243,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1234,6 +1269,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1259,6 +1295,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1284,6 +1321,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1309,6 +1347,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1334,6 +1373,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1359,6 +1399,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1384,6 +1425,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1409,6 +1451,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1434,6 +1477,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1459,6 +1503,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1484,6 +1529,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1509,6 +1555,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1534,6 +1581,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1559,6 +1607,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1584,6 +1633,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1609,6 +1659,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1634,6 +1685,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1659,6 +1711,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1684,6 +1737,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1709,6 +1763,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1734,6 +1789,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1759,6 +1815,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1784,6 +1841,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1809,6 +1867,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1834,6 +1893,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1859,6 +1919,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1884,6 +1945,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1909,6 +1971,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1934,6 +1997,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1959,6 +2023,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1984,6 +2049,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2009,6 +2075,7 @@
           <t>Done</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2029,8 +2096,15 @@
           <t>11-1856/P</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>1</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2052,8 +2126,15 @@
           <t>0494-5387</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>1</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2075,9 +2156,12 @@
           <t>11-1848/P</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2098,9 +2182,12 @@
           <t>62-1022/G4</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2121,9 +2208,12 @@
           <t>11-3068/G2</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2144,9 +2234,12 @@
           <t>11-1528/J</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2167,9 +2260,12 @@
           <t>11-5181/TP</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2190,9 +2286,12 @@
           <t>21-1413/G4</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2213,9 +2312,12 @@
           <t>22-1062/C</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2236,9 +2338,12 @@
           <t>22-1180/C</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2259,9 +2364,12 @@
           <t>31-2008/D</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2282,9 +2390,12 @@
           <t>32-1517/C</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2305,9 +2416,12 @@
           <t>32-1096/K</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2328,9 +2442,12 @@
           <t>35-1197/C</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2351,9 +2468,12 @@
           <t>44-1124/D</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2374,9 +2494,12 @@
           <t>37-1062/C</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2397,9 +2520,12 @@
           <t>11-1073/G2</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2420,9 +2546,12 @@
           <t>62-1007/K</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2443,9 +2572,12 @@
           <t>61-1470/D</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2466,9 +2598,12 @@
           <t>42-1664/D</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>1</v>
-      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2489,9 +2624,12 @@
           <t>31-1050/D</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2512,9 +2650,12 @@
           <t>11-3212/D</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2535,9 +2676,12 @@
           <t>37-1343/D</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2558,9 +2702,12 @@
           <t>42-1086/D</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2581,9 +2728,12 @@
           <t>11-1162/D</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2604,9 +2754,12 @@
           <t>22-1243/D</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2627,9 +2780,12 @@
           <t>11-1052/H</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2650,9 +2806,12 @@
           <t>35-1248/C</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2673,9 +2832,12 @@
           <t>35-1016/C</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2696,9 +2858,12 @@
           <t>11-2876/C</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2719,9 +2884,12 @@
           <t>31-1891/G4</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2742,9 +2910,12 @@
           <t>31-1142/C</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2765,9 +2936,12 @@
           <t>50-1012/F</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2788,9 +2962,12 @@
           <t>15-1112/N</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2811,9 +2988,12 @@
           <t>62-1093/C</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2834,9 +3014,12 @@
           <t>62-1143/D</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2857,9 +3040,12 @@
           <t>42-1026/G4</t>
         </is>
       </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2880,9 +3066,12 @@
           <t>42-1024/G4</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2903,9 +3092,12 @@
           <t>32-1774/G4</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2926,9 +3118,12 @@
           <t>23-1523/F</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>1</v>
-      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2949,9 +3144,12 @@
           <t>10-1062/D</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2972,9 +3170,12 @@
           <t>44-1648/D</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2995,8 +3196,15 @@
           <t>1561-8080</t>
         </is>
       </c>
-      <c r="E106" t="n">
-        <v>1</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -3018,9 +3226,12 @@
           <t>22-1213/K</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3041,9 +3252,12 @@
           <t>11-1202/G2</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>1</v>
-      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3064,9 +3278,12 @@
           <t>33-1136/N</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>1</v>
-      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3087,9 +3304,12 @@
           <t>23-1510/C</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>1</v>
-      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3110,9 +3330,12 @@
           <t>12-1275/G3</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3133,9 +3356,12 @@
           <t>11-5057/F</t>
         </is>
       </c>
-      <c r="E112" t="n">
-        <v>1</v>
-      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3156,9 +3382,12 @@
           <t>11-1235/F</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>1</v>
-      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3179,8 +3408,15 @@
           <t>42-1725/C</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>1</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -3202,8 +3438,15 @@
           <t>2521-4306</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>1</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -3225,9 +3468,12 @@
           <t>41-1408/F</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3246,8 +3492,15 @@
       <c r="D117" t="n">
         <v>110026</v>
       </c>
-      <c r="E117" t="n">
-        <v>1</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -3269,9 +3522,12 @@
           <t>44-1711/F</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3292,9 +3548,12 @@
           <t>44-1067/C</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3315,9 +3574,12 @@
           <t>45-1070/C</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>1</v>
-      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3338,9 +3600,12 @@
           <t>45-1349/C</t>
         </is>
       </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3361,9 +3626,12 @@
           <t>45-1041/C</t>
         </is>
       </c>
-      <c r="E122" t="n">
-        <v>1</v>
-      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3384,9 +3652,12 @@
           <t>52-1156/F</t>
         </is>
       </c>
-      <c r="E123" t="n">
-        <v>1</v>
-      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3407,9 +3678,12 @@
           <t>52-1001/C</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3430,9 +3704,12 @@
           <t>52-1005/C</t>
         </is>
       </c>
-      <c r="E125" t="n">
-        <v>1</v>
-      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3453,9 +3730,12 @@
           <t>10-1132/D</t>
         </is>
       </c>
-      <c r="E126" t="n">
-        <v>1</v>
-      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3476,9 +3756,12 @@
           <t>31-1642/D</t>
         </is>
       </c>
-      <c r="E127" t="n">
-        <v>1</v>
-      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3499,9 +3782,12 @@
           <t>11-1132/F</t>
         </is>
       </c>
-      <c r="E128" t="n">
-        <v>1</v>
-      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3522,9 +3808,12 @@
           <t>11-3799/F</t>
         </is>
       </c>
-      <c r="E129" t="n">
-        <v>1</v>
-      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3545,9 +3834,12 @@
           <t>44-1302/F</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3568,9 +3860,12 @@
           <t>11-3959/D</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>1</v>
-      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3591,9 +3886,12 @@
           <t>11-1600/F</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>1</v>
-      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3614,9 +3912,12 @@
           <t>11-1692/F</t>
         </is>
       </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3637,9 +3938,12 @@
           <t>11-3645/F</t>
         </is>
       </c>
-      <c r="E134" t="n">
-        <v>1</v>
-      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3660,9 +3964,12 @@
           <t>11-1504/D</t>
         </is>
       </c>
-      <c r="E135" t="n">
-        <v>1</v>
-      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3683,9 +3990,12 @@
           <t>11-1523/G2</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>1</v>
-      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3706,9 +4016,12 @@
           <t>31-1041/D</t>
         </is>
       </c>
-      <c r="E137" t="n">
-        <v>1</v>
-      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3729,9 +4042,12 @@
           <t>10-1393/D</t>
         </is>
       </c>
-      <c r="E138" t="n">
-        <v>1</v>
-      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3752,9 +4068,12 @@
           <t>11-4782/D</t>
         </is>
       </c>
-      <c r="E139" t="n">
-        <v>1</v>
-      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3775,9 +4094,12 @@
           <t>11-3194/D</t>
         </is>
       </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3798,9 +4120,12 @@
           <t>11-5047/D</t>
         </is>
       </c>
-      <c r="E141" t="n">
-        <v>1</v>
-      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3821,9 +4146,12 @@
           <t>11-4099/G2</t>
         </is>
       </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3844,9 +4172,12 @@
           <t>11-4507/D</t>
         </is>
       </c>
-      <c r="E143" t="n">
-        <v>1</v>
-      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3867,9 +4198,12 @@
           <t>11-1163/C</t>
         </is>
       </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3890,9 +4224,12 @@
           <t>11-1562/I</t>
         </is>
       </c>
-      <c r="E145" t="n">
-        <v>1</v>
-      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3913,9 +4250,12 @@
           <t>46-1012/C</t>
         </is>
       </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3936,9 +4276,12 @@
           <t>42-1729/H</t>
         </is>
       </c>
-      <c r="E147" t="n">
-        <v>1</v>
-      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3959,9 +4302,12 @@
           <t>22-1026/H</t>
         </is>
       </c>
-      <c r="E148" t="n">
-        <v>1</v>
-      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3982,9 +4328,12 @@
           <t>11-3641/D</t>
         </is>
       </c>
-      <c r="E149" t="n">
-        <v>1</v>
-      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4005,9 +4354,12 @@
           <t>13-1020/C</t>
         </is>
       </c>
-      <c r="E150" t="n">
-        <v>1</v>
-      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4028,9 +4380,12 @@
           <t>32-1521/C</t>
         </is>
       </c>
-      <c r="E151" t="n">
-        <v>1</v>
-      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4051,9 +4406,12 @@
           <t>41-1028/C</t>
         </is>
       </c>
-      <c r="E152" t="n">
-        <v>1</v>
-      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4074,9 +4432,12 @@
           <t>41-1011/C</t>
         </is>
       </c>
-      <c r="E153" t="n">
-        <v>1</v>
-      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4097,9 +4458,12 @@
           <t>11-4904/D</t>
         </is>
       </c>
-      <c r="E154" t="n">
-        <v>1</v>
-      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4120,9 +4484,12 @@
           <t>11-3952/F</t>
         </is>
       </c>
-      <c r="E155" t="n">
-        <v>1</v>
-      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4143,9 +4510,12 @@
           <t>42-1848/C</t>
         </is>
       </c>
-      <c r="E156" t="n">
-        <v>1</v>
-      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4166,9 +4536,12 @@
           <t>42-1020/C</t>
         </is>
       </c>
-      <c r="E157" t="n">
-        <v>1</v>
-      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4189,9 +4562,12 @@
           <t>43-1286/C</t>
         </is>
       </c>
-      <c r="E158" t="n">
-        <v>1</v>
-      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4212,9 +4588,12 @@
           <t>43-1436/C</t>
         </is>
       </c>
-      <c r="E159" t="n">
-        <v>1</v>
-      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4235,9 +4614,12 @@
           <t>43-1381/G4</t>
         </is>
       </c>
-      <c r="E160" t="n">
-        <v>1</v>
-      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4258,9 +4640,12 @@
           <t>43-1541/C</t>
         </is>
       </c>
-      <c r="E161" t="n">
-        <v>1</v>
-      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4281,9 +4666,12 @@
           <t>31-1007/G4</t>
         </is>
       </c>
-      <c r="E162" t="n">
-        <v>1</v>
-      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4304,9 +4692,12 @@
           <t>31-1010/C</t>
         </is>
       </c>
-      <c r="E163" t="n">
-        <v>1</v>
-      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4327,9 +4718,12 @@
           <t>31-2005/D</t>
         </is>
       </c>
-      <c r="E164" t="n">
-        <v>1</v>
-      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4350,9 +4744,12 @@
           <t>44-1559/C</t>
         </is>
       </c>
-      <c r="E165" t="n">
-        <v>1</v>
-      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4373,9 +4770,12 @@
           <t>44-1139/C</t>
         </is>
       </c>
-      <c r="E166" t="n">
-        <v>1</v>
-      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4396,9 +4796,12 @@
           <t>11-1158/K</t>
         </is>
       </c>
-      <c r="E167" t="n">
-        <v>1</v>
-      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4419,9 +4822,12 @@
           <t>42-1673/C</t>
         </is>
       </c>
-      <c r="E168" t="n">
-        <v>1</v>
-      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4442,9 +4848,12 @@
           <t>42-1558/C</t>
         </is>
       </c>
-      <c r="E169" t="n">
-        <v>1</v>
-      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4465,9 +4874,12 @@
           <t>42-1040/C</t>
         </is>
       </c>
-      <c r="E170" t="n">
-        <v>1</v>
-      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4488,9 +4900,12 @@
           <t>11-4560/D</t>
         </is>
       </c>
-      <c r="E171" t="n">
-        <v>1</v>
-      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4514,6 +4929,7 @@
       <c r="E172" t="n">
         <v>1</v>
       </c>
+      <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4537,6 +4953,7 @@
       <c r="E173" t="n">
         <v>1</v>
       </c>
+      <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4560,6 +4977,7 @@
       <c r="E174" t="n">
         <v>1</v>
       </c>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4583,6 +5001,7 @@
       <c r="E175" t="n">
         <v>1</v>
       </c>
+      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4606,6 +5025,7 @@
       <c r="E176" t="n">
         <v>1</v>
       </c>
+      <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4629,6 +5049,7 @@
       <c r="E177" t="n">
         <v>1</v>
       </c>
+      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4652,6 +5073,7 @@
       <c r="E178" t="n">
         <v>1</v>
       </c>
+      <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4675,6 +5097,7 @@
       <c r="E179" t="n">
         <v>1</v>
       </c>
+      <c r="F179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4698,6 +5121,7 @@
       <c r="E180" t="n">
         <v>1</v>
       </c>
+      <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4721,6 +5145,7 @@
       <c r="E181" t="n">
         <v>1</v>
       </c>
+      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4744,6 +5169,7 @@
       <c r="E182" t="n">
         <v>1</v>
       </c>
+      <c r="F182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4767,6 +5193,7 @@
       <c r="E183" t="n">
         <v>1</v>
       </c>
+      <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4790,6 +5217,7 @@
       <c r="E184" t="n">
         <v>1</v>
       </c>
+      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4813,6 +5241,7 @@
       <c r="E185" t="n">
         <v>1</v>
       </c>
+      <c r="F185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4836,6 +5265,7 @@
       <c r="E186" t="n">
         <v>1</v>
       </c>
+      <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4859,6 +5289,7 @@
       <c r="E187" t="n">
         <v>1</v>
       </c>
+      <c r="F187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4882,6 +5313,7 @@
       <c r="E188" t="n">
         <v>1</v>
       </c>
+      <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4905,6 +5337,7 @@
       <c r="E189" t="n">
         <v>1</v>
       </c>
+      <c r="F189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4928,6 +5361,7 @@
       <c r="E190" t="n">
         <v>1</v>
       </c>
+      <c r="F190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4951,6 +5385,7 @@
       <c r="E191" t="n">
         <v>1</v>
       </c>
+      <c r="F191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4974,6 +5409,7 @@
       <c r="E192" t="n">
         <v>1</v>
       </c>
+      <c r="F192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4997,6 +5433,7 @@
       <c r="E193" t="n">
         <v>1</v>
       </c>
+      <c r="F193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5020,6 +5457,7 @@
       <c r="E194" t="n">
         <v>1</v>
       </c>
+      <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5043,6 +5481,7 @@
       <c r="E195" t="n">
         <v>1</v>
       </c>
+      <c r="F195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5066,6 +5505,7 @@
       <c r="E196" t="n">
         <v>1</v>
       </c>
+      <c r="F196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5089,6 +5529,7 @@
       <c r="E197" t="n">
         <v>1</v>
       </c>
+      <c r="F197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5112,6 +5553,7 @@
       <c r="E198" t="n">
         <v>1</v>
       </c>
+      <c r="F198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5135,6 +5577,7 @@
       <c r="E199" t="n">
         <v>1</v>
       </c>
+      <c r="F199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5158,6 +5601,7 @@
       <c r="E200" t="n">
         <v>1</v>
       </c>
+      <c r="F200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5181,6 +5625,7 @@
       <c r="E201" t="n">
         <v>1</v>
       </c>
+      <c r="F201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5204,6 +5649,7 @@
       <c r="E202" t="n">
         <v>1</v>
       </c>
+      <c r="F202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5227,6 +5673,7 @@
       <c r="E203" t="n">
         <v>1</v>
       </c>
+      <c r="F203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5250,6 +5697,7 @@
       <c r="E204" t="n">
         <v>1</v>
       </c>
+      <c r="F204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5273,6 +5721,7 @@
       <c r="E205" t="n">
         <v>1</v>
       </c>
+      <c r="F205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5296,6 +5745,7 @@
       <c r="E206" t="n">
         <v>1</v>
       </c>
+      <c r="F206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5319,6 +5769,7 @@
       <c r="E207" t="n">
         <v>1</v>
       </c>
+      <c r="F207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5342,6 +5793,7 @@
       <c r="E208" t="n">
         <v>1</v>
       </c>
+      <c r="F208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5365,6 +5817,7 @@
       <c r="E209" t="n">
         <v>1</v>
       </c>
+      <c r="F209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5388,6 +5841,7 @@
       <c r="E210" t="n">
         <v>1</v>
       </c>
+      <c r="F210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5411,6 +5865,7 @@
       <c r="E211" t="n">
         <v>1</v>
       </c>
+      <c r="F211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5434,6 +5889,7 @@
       <c r="E212" t="n">
         <v>1</v>
       </c>
+      <c r="F212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5457,6 +5913,7 @@
       <c r="E213" t="n">
         <v>1</v>
       </c>
+      <c r="F213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5480,6 +5937,7 @@
       <c r="E214" t="n">
         <v>1</v>
       </c>
+      <c r="F214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5503,6 +5961,7 @@
       <c r="E215" t="n">
         <v>1</v>
       </c>
+      <c r="F215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5526,6 +5985,7 @@
       <c r="E216" t="n">
         <v>1</v>
       </c>
+      <c r="F216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5549,6 +6009,7 @@
       <c r="E217" t="n">
         <v>1</v>
       </c>
+      <c r="F217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5572,6 +6033,7 @@
       <c r="E218" t="n">
         <v>1</v>
       </c>
+      <c r="F218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5595,6 +6057,7 @@
       <c r="E219" t="n">
         <v>1</v>
       </c>
+      <c r="F219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5618,6 +6081,7 @@
       <c r="E220" t="n">
         <v>1</v>
       </c>
+      <c r="F220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5641,6 +6105,7 @@
       <c r="E221" t="n">
         <v>1</v>
       </c>
+      <c r="F221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5664,6 +6129,7 @@
       <c r="E222" t="n">
         <v>1</v>
       </c>
+      <c r="F222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5687,6 +6153,7 @@
       <c r="E223" t="n">
         <v>1</v>
       </c>
+      <c r="F223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5710,6 +6177,7 @@
       <c r="E224" t="n">
         <v>1</v>
       </c>
+      <c r="F224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5733,6 +6201,7 @@
       <c r="E225" t="n">
         <v>1</v>
       </c>
+      <c r="F225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5756,6 +6225,7 @@
       <c r="E226" t="n">
         <v>1</v>
       </c>
+      <c r="F226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5779,6 +6249,7 @@
       <c r="E227" t="n">
         <v>1</v>
       </c>
+      <c r="F227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5802,6 +6273,7 @@
       <c r="E228" t="n">
         <v>1</v>
       </c>
+      <c r="F228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5825,6 +6297,7 @@
       <c r="E229" t="n">
         <v>1</v>
       </c>
+      <c r="F229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5848,6 +6321,7 @@
       <c r="E230" t="n">
         <v>1</v>
       </c>
+      <c r="F230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5871,6 +6345,7 @@
       <c r="E231" t="n">
         <v>1</v>
       </c>
+      <c r="F231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5894,6 +6369,7 @@
       <c r="E232" t="n">
         <v>1</v>
       </c>
+      <c r="F232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5917,6 +6393,7 @@
       <c r="E233" t="n">
         <v>1</v>
       </c>
+      <c r="F233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5940,6 +6417,7 @@
       <c r="E234" t="n">
         <v>1</v>
       </c>
+      <c r="F234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5963,6 +6441,7 @@
       <c r="E235" t="n">
         <v>1</v>
       </c>
+      <c r="F235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5986,6 +6465,7 @@
       <c r="E236" t="n">
         <v>1</v>
       </c>
+      <c r="F236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -6009,6 +6489,7 @@
       <c r="E237" t="n">
         <v>1</v>
       </c>
+      <c r="F237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -6032,6 +6513,7 @@
       <c r="E238" t="n">
         <v>1</v>
       </c>
+      <c r="F238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -6055,6 +6537,7 @@
       <c r="E239" t="n">
         <v>1</v>
       </c>
+      <c r="F239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6078,6 +6561,7 @@
       <c r="E240" t="n">
         <v>1</v>
       </c>
+      <c r="F240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6101,6 +6585,7 @@
       <c r="E241" t="n">
         <v>1</v>
       </c>
+      <c r="F241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6124,6 +6609,7 @@
       <c r="E242" t="n">
         <v>1</v>
       </c>
+      <c r="F242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6147,6 +6633,7 @@
       <c r="E243" t="n">
         <v>1</v>
       </c>
+      <c r="F243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6170,6 +6657,7 @@
       <c r="E244" t="n">
         <v>1</v>
       </c>
+      <c r="F244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6193,6 +6681,7 @@
       <c r="E245" t="n">
         <v>1</v>
       </c>
+      <c r="F245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6216,6 +6705,7 @@
       <c r="E246" t="n">
         <v>1</v>
       </c>
+      <c r="F246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6239,6 +6729,7 @@
       <c r="E247" t="n">
         <v>1</v>
       </c>
+      <c r="F247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6262,6 +6753,7 @@
       <c r="E248" t="n">
         <v>1</v>
       </c>
+      <c r="F248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6285,6 +6777,7 @@
       <c r="E249" t="n">
         <v>1</v>
       </c>
+      <c r="F249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6308,6 +6801,7 @@
       <c r="E250" t="n">
         <v>1</v>
       </c>
+      <c r="F250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6331,6 +6825,7 @@
       <c r="E251" t="n">
         <v>1</v>
       </c>
+      <c r="F251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6354,6 +6849,7 @@
       <c r="E252" t="n">
         <v>1</v>
       </c>
+      <c r="F252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6377,6 +6873,7 @@
       <c r="E253" t="n">
         <v>1</v>
       </c>
+      <c r="F253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6400,6 +6897,7 @@
       <c r="E254" t="n">
         <v>1</v>
       </c>
+      <c r="F254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6423,6 +6921,7 @@
       <c r="E255" t="n">
         <v>1</v>
       </c>
+      <c r="F255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6446,6 +6945,7 @@
       <c r="E256" t="n">
         <v>1</v>
       </c>
+      <c r="F256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6469,6 +6969,7 @@
       <c r="E257" t="n">
         <v>1</v>
       </c>
+      <c r="F257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6492,6 +6993,7 @@
       <c r="E258" t="n">
         <v>1</v>
       </c>
+      <c r="F258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6515,6 +7017,7 @@
       <c r="E259" t="n">
         <v>1</v>
       </c>
+      <c r="F259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6538,6 +7041,7 @@
       <c r="E260" t="n">
         <v>1</v>
       </c>
+      <c r="F260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6561,6 +7065,7 @@
       <c r="E261" t="n">
         <v>1</v>
       </c>
+      <c r="F261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6584,6 +7089,7 @@
       <c r="E262" t="n">
         <v>1</v>
       </c>
+      <c r="F262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6607,6 +7113,7 @@
       <c r="E263" t="n">
         <v>1</v>
       </c>
+      <c r="F263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6630,6 +7137,7 @@
       <c r="E264" t="n">
         <v>1</v>
       </c>
+      <c r="F264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6653,6 +7161,7 @@
       <c r="E265" t="n">
         <v>1</v>
       </c>
+      <c r="F265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6676,6 +7185,7 @@
       <c r="E266" t="n">
         <v>1</v>
       </c>
+      <c r="F266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6699,6 +7209,7 @@
       <c r="E267" t="n">
         <v>1</v>
       </c>
+      <c r="F267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6722,6 +7233,7 @@
       <c r="E268" t="n">
         <v>1</v>
       </c>
+      <c r="F268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6745,6 +7257,7 @@
       <c r="E269" t="n">
         <v>1</v>
       </c>
+      <c r="F269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6768,6 +7281,7 @@
       <c r="E270" t="n">
         <v>1</v>
       </c>
+      <c r="F270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6791,6 +7305,7 @@
       <c r="E271" t="n">
         <v>1</v>
       </c>
+      <c r="F271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6814,6 +7329,7 @@
       <c r="E272" t="n">
         <v>1</v>
       </c>
+      <c r="F272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6837,6 +7353,7 @@
       <c r="E273" t="n">
         <v>1</v>
       </c>
+      <c r="F273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6860,6 +7377,7 @@
       <c r="E274" t="n">
         <v>1</v>
       </c>
+      <c r="F274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6883,6 +7401,7 @@
       <c r="E275" t="n">
         <v>1</v>
       </c>
+      <c r="F275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6906,6 +7425,7 @@
       <c r="E276" t="n">
         <v>1</v>
       </c>
+      <c r="F276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6929,6 +7449,7 @@
       <c r="E277" t="n">
         <v>1</v>
       </c>
+      <c r="F277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6952,6 +7473,7 @@
       <c r="E278" t="n">
         <v>1</v>
       </c>
+      <c r="F278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6975,6 +7497,7 @@
       <c r="E279" t="n">
         <v>1</v>
       </c>
+      <c r="F279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6998,6 +7521,7 @@
       <c r="E280" t="n">
         <v>1</v>
       </c>
+      <c r="F280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -7021,6 +7545,7 @@
       <c r="E281" t="n">
         <v>1</v>
       </c>
+      <c r="F281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -7044,6 +7569,7 @@
       <c r="E282" t="n">
         <v>1</v>
       </c>
+      <c r="F282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -7067,6 +7593,7 @@
       <c r="E283" t="n">
         <v>1</v>
       </c>
+      <c r="F283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -7090,6 +7617,7 @@
       <c r="E284" t="n">
         <v>1</v>
       </c>
+      <c r="F284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7113,6 +7641,7 @@
       <c r="E285" t="n">
         <v>1</v>
       </c>
+      <c r="F285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7136,6 +7665,7 @@
       <c r="E286" t="n">
         <v>1</v>
       </c>
+      <c r="F286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7159,6 +7689,7 @@
       <c r="E287" t="n">
         <v>1</v>
       </c>
+      <c r="F287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7182,6 +7713,7 @@
       <c r="E288" t="n">
         <v>1</v>
       </c>
+      <c r="F288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7205,6 +7737,7 @@
       <c r="E289" t="n">
         <v>1</v>
       </c>
+      <c r="F289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7228,6 +7761,7 @@
       <c r="E290" t="n">
         <v>1</v>
       </c>
+      <c r="F290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7251,6 +7785,7 @@
       <c r="E291" t="n">
         <v>1</v>
       </c>
+      <c r="F291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7274,6 +7809,7 @@
       <c r="E292" t="n">
         <v>1</v>
       </c>
+      <c r="F292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7297,6 +7833,7 @@
       <c r="E293" t="n">
         <v>1</v>
       </c>
+      <c r="F293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7320,6 +7857,7 @@
       <c r="E294" t="n">
         <v>1</v>
       </c>
+      <c r="F294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7343,6 +7881,7 @@
       <c r="E295" t="n">
         <v>1</v>
       </c>
+      <c r="F295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7366,6 +7905,7 @@
       <c r="E296" t="n">
         <v>1</v>
       </c>
+      <c r="F296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7389,6 +7929,7 @@
       <c r="E297" t="n">
         <v>1</v>
       </c>
+      <c r="F297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7412,6 +7953,7 @@
       <c r="E298" t="n">
         <v>1</v>
       </c>
+      <c r="F298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7435,6 +7977,7 @@
       <c r="E299" t="n">
         <v>1</v>
       </c>
+      <c r="F299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7458,6 +8001,7 @@
       <c r="E300" t="n">
         <v>1</v>
       </c>
+      <c r="F300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7481,6 +8025,7 @@
       <c r="E301" t="n">
         <v>1</v>
       </c>
+      <c r="F301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7504,6 +8049,7 @@
       <c r="E302" t="n">
         <v>1</v>
       </c>
+      <c r="F302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7527,6 +8073,7 @@
       <c r="E303" t="n">
         <v>1</v>
       </c>
+      <c r="F303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7550,6 +8097,7 @@
       <c r="E304" t="n">
         <v>1</v>
       </c>
+      <c r="F304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7573,6 +8121,7 @@
       <c r="E305" t="n">
         <v>1</v>
       </c>
+      <c r="F305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7596,6 +8145,7 @@
       <c r="E306" t="n">
         <v>1</v>
       </c>
+      <c r="F306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7619,6 +8169,7 @@
       <c r="E307" t="n">
         <v>1</v>
       </c>
+      <c r="F307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7642,6 +8193,7 @@
       <c r="E308" t="n">
         <v>1</v>
       </c>
+      <c r="F308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7665,6 +8217,7 @@
       <c r="E309" t="n">
         <v>1</v>
       </c>
+      <c r="F309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7688,6 +8241,7 @@
       <c r="E310" t="n">
         <v>1</v>
       </c>
+      <c r="F310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7711,6 +8265,7 @@
       <c r="E311" t="n">
         <v>1</v>
       </c>
+      <c r="F311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7734,6 +8289,7 @@
       <c r="E312" t="n">
         <v>1</v>
       </c>
+      <c r="F312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7757,6 +8313,7 @@
       <c r="E313" t="n">
         <v>1</v>
       </c>
+      <c r="F313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7780,6 +8337,7 @@
       <c r="E314" t="n">
         <v>1</v>
       </c>
+      <c r="F314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7803,6 +8361,7 @@
       <c r="E315" t="n">
         <v>1</v>
       </c>
+      <c r="F315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7826,6 +8385,7 @@
       <c r="E316" t="n">
         <v>1</v>
       </c>
+      <c r="F316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7847,6 +8407,7 @@
       <c r="E317" t="n">
         <v>1</v>
       </c>
+      <c r="F317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7870,6 +8431,7 @@
       <c r="E318" t="n">
         <v>1</v>
       </c>
+      <c r="F318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7893,6 +8455,7 @@
       <c r="E319" t="n">
         <v>1</v>
       </c>
+      <c r="F319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7916,6 +8479,7 @@
       <c r="E320" t="n">
         <v>1</v>
       </c>
+      <c r="F320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7939,6 +8503,7 @@
       <c r="E321" t="n">
         <v>1</v>
       </c>
+      <c r="F321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7962,6 +8527,7 @@
       <c r="E322" t="n">
         <v>1</v>
       </c>
+      <c r="F322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7985,6 +8551,7 @@
       <c r="E323" t="n">
         <v>1</v>
       </c>
+      <c r="F323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -8008,6 +8575,7 @@
       <c r="E324" t="n">
         <v>1</v>
       </c>
+      <c r="F324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -8031,6 +8599,7 @@
       <c r="E325" t="n">
         <v>1</v>
       </c>
+      <c r="F325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -8054,6 +8623,7 @@
       <c r="E326" t="n">
         <v>1</v>
       </c>
+      <c r="F326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -8077,6 +8647,7 @@
       <c r="E327" t="n">
         <v>1</v>
       </c>
+      <c r="F327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -8100,6 +8671,7 @@
       <c r="E328" t="n">
         <v>1</v>
       </c>
+      <c r="F328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -8123,6 +8695,7 @@
       <c r="E329" t="n">
         <v>1</v>
       </c>
+      <c r="F329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -8146,6 +8719,7 @@
       <c r="E330" t="n">
         <v>1</v>
       </c>
+      <c r="F330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -8169,6 +8743,7 @@
       <c r="E331" t="n">
         <v>1</v>
       </c>
+      <c r="F331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8192,6 +8767,7 @@
       <c r="E332" t="n">
         <v>1</v>
       </c>
+      <c r="F332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8215,6 +8791,7 @@
       <c r="E333" t="n">
         <v>1</v>
       </c>
+      <c r="F333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8238,6 +8815,7 @@
       <c r="E334" t="n">
         <v>1</v>
       </c>
+      <c r="F334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8261,6 +8839,7 @@
       <c r="E335" t="n">
         <v>1</v>
       </c>
+      <c r="F335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8284,6 +8863,7 @@
       <c r="E336" t="n">
         <v>1</v>
       </c>
+      <c r="F336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8307,6 +8887,7 @@
       <c r="E337" t="n">
         <v>1</v>
       </c>
+      <c r="F337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8330,6 +8911,7 @@
       <c r="E338" t="n">
         <v>1</v>
       </c>
+      <c r="F338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8353,6 +8935,7 @@
       <c r="E339" t="n">
         <v>1</v>
       </c>
+      <c r="F339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8376,6 +8959,7 @@
       <c r="E340" t="n">
         <v>1</v>
       </c>
+      <c r="F340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8399,6 +8983,7 @@
       <c r="E341" t="n">
         <v>1</v>
       </c>
+      <c r="F341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8422,6 +9007,7 @@
       <c r="E342" t="n">
         <v>1</v>
       </c>
+      <c r="F342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8445,6 +9031,7 @@
       <c r="E343" t="n">
         <v>1</v>
       </c>
+      <c r="F343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8468,6 +9055,7 @@
       <c r="E344" t="n">
         <v>1</v>
       </c>
+      <c r="F344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8491,6 +9079,7 @@
       <c r="E345" t="n">
         <v>1</v>
       </c>
+      <c r="F345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8514,6 +9103,7 @@
       <c r="E346" t="n">
         <v>1</v>
       </c>
+      <c r="F346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8537,6 +9127,7 @@
       <c r="E347" t="n">
         <v>1</v>
       </c>
+      <c r="F347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8560,6 +9151,7 @@
       <c r="E348" t="n">
         <v>1</v>
       </c>
+      <c r="F348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8583,6 +9175,7 @@
       <c r="E349" t="n">
         <v>1</v>
       </c>
+      <c r="F349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -8606,6 +9199,7 @@
       <c r="E350" t="n">
         <v>1</v>
       </c>
+      <c r="F350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -8629,6 +9223,7 @@
       <c r="E351" t="n">
         <v>1</v>
       </c>
+      <c r="F351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -8652,6 +9247,7 @@
       <c r="E352" t="n">
         <v>1</v>
       </c>
+      <c r="F352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -8675,6 +9271,7 @@
       <c r="E353" t="n">
         <v>1</v>
       </c>
+      <c r="F353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -8698,6 +9295,7 @@
       <c r="E354" t="n">
         <v>1</v>
       </c>
+      <c r="F354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -8721,6 +9319,7 @@
       <c r="E355" t="n">
         <v>1</v>
       </c>
+      <c r="F355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -8744,6 +9343,7 @@
       <c r="E356" t="n">
         <v>1</v>
       </c>
+      <c r="F356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -8767,6 +9367,7 @@
       <c r="E357" t="n">
         <v>1</v>
       </c>
+      <c r="F357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -8790,6 +9391,7 @@
       <c r="E358" t="n">
         <v>1</v>
       </c>
+      <c r="F358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -8813,6 +9415,7 @@
       <c r="E359" t="n">
         <v>1</v>
       </c>
+      <c r="F359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -8836,6 +9439,7 @@
       <c r="E360" t="n">
         <v>1</v>
       </c>
+      <c r="F360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -8859,6 +9463,7 @@
       <c r="E361" t="n">
         <v>1</v>
       </c>
+      <c r="F361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -8882,6 +9487,7 @@
       <c r="E362" t="n">
         <v>1</v>
       </c>
+      <c r="F362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -8905,6 +9511,7 @@
       <c r="E363" t="n">
         <v>1</v>
       </c>
+      <c r="F363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -8928,6 +9535,7 @@
       <c r="E364" t="n">
         <v>1</v>
       </c>
+      <c r="F364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -8951,6 +9559,7 @@
       <c r="E365" t="n">
         <v>1</v>
       </c>
+      <c r="F365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -8974,6 +9583,7 @@
       <c r="E366" t="n">
         <v>1</v>
       </c>
+      <c r="F366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -8997,6 +9607,7 @@
       <c r="E367" t="n">
         <v>1</v>
       </c>
+      <c r="F367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -9020,6 +9631,7 @@
       <c r="E368" t="n">
         <v>1</v>
       </c>
+      <c r="F368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -9043,6 +9655,7 @@
       <c r="E369" t="n">
         <v>1</v>
       </c>
+      <c r="F369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -9066,6 +9679,7 @@
       <c r="E370" t="n">
         <v>1</v>
       </c>
+      <c r="F370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -9089,6 +9703,7 @@
       <c r="E371" t="n">
         <v>1</v>
       </c>
+      <c r="F371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -9112,6 +9727,7 @@
       <c r="E372" t="n">
         <v>1</v>
       </c>
+      <c r="F372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -9135,6 +9751,7 @@
       <c r="E373" t="n">
         <v>1</v>
       </c>
+      <c r="F373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -9158,6 +9775,7 @@
       <c r="E374" t="n">
         <v>1</v>
       </c>
+      <c r="F374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -9181,6 +9799,7 @@
       <c r="E375" t="n">
         <v>1</v>
       </c>
+      <c r="F375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -9204,6 +9823,7 @@
       <c r="E376" t="n">
         <v>1</v>
       </c>
+      <c r="F376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -9227,6 +9847,7 @@
       <c r="E377" t="n">
         <v>1</v>
       </c>
+      <c r="F377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -9250,6 +9871,7 @@
       <c r="E378" t="n">
         <v>1</v>
       </c>
+      <c r="F378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -9273,6 +9895,7 @@
       <c r="E379" t="n">
         <v>1</v>
       </c>
+      <c r="F379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -9296,6 +9919,7 @@
       <c r="E380" t="n">
         <v>1</v>
       </c>
+      <c r="F380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -9319,6 +9943,7 @@
       <c r="E381" t="n">
         <v>1</v>
       </c>
+      <c r="F381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -9342,6 +9967,7 @@
       <c r="E382" t="n">
         <v>1</v>
       </c>
+      <c r="F382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -9365,6 +9991,7 @@
       <c r="E383" t="n">
         <v>1</v>
       </c>
+      <c r="F383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -9388,6 +10015,7 @@
       <c r="E384" t="n">
         <v>1</v>
       </c>
+      <c r="F384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -9411,6 +10039,7 @@
       <c r="E385" t="n">
         <v>1</v>
       </c>
+      <c r="F385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -9434,6 +10063,7 @@
       <c r="E386" t="n">
         <v>1</v>
       </c>
+      <c r="F386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -9457,6 +10087,7 @@
       <c r="E387" t="n">
         <v>1</v>
       </c>
+      <c r="F387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -9480,6 +10111,7 @@
       <c r="E388" t="n">
         <v>1</v>
       </c>
+      <c r="F388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -9503,6 +10135,7 @@
       <c r="E389" t="n">
         <v>1</v>
       </c>
+      <c r="F389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -9526,6 +10159,7 @@
       <c r="E390" t="n">
         <v>1</v>
       </c>
+      <c r="F390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -9549,6 +10183,7 @@
       <c r="E391" t="n">
         <v>1</v>
       </c>
+      <c r="F391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -9572,6 +10207,7 @@
       <c r="E392" t="n">
         <v>1</v>
       </c>
+      <c r="F392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -9595,6 +10231,7 @@
       <c r="E393" t="n">
         <v>1</v>
       </c>
+      <c r="F393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -9618,6 +10255,7 @@
       <c r="E394" t="n">
         <v>1</v>
       </c>
+      <c r="F394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -9641,6 +10279,7 @@
       <c r="E395" t="n">
         <v>1</v>
       </c>
+      <c r="F395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -9664,6 +10303,7 @@
       <c r="E396" t="n">
         <v>1</v>
       </c>
+      <c r="F396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -9687,6 +10327,7 @@
       <c r="E397" t="n">
         <v>1</v>
       </c>
+      <c r="F397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -9710,6 +10351,7 @@
       <c r="E398" t="n">
         <v>1</v>
       </c>
+      <c r="F398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -9733,6 +10375,7 @@
       <c r="E399" t="n">
         <v>1</v>
       </c>
+      <c r="F399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -9756,6 +10399,7 @@
       <c r="E400" t="n">
         <v>1</v>
       </c>
+      <c r="F400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -9779,6 +10423,7 @@
       <c r="E401" t="n">
         <v>1</v>
       </c>
+      <c r="F401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -9802,6 +10447,7 @@
       <c r="E402" t="n">
         <v>1</v>
       </c>
+      <c r="F402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -9825,6 +10471,7 @@
       <c r="E403" t="n">
         <v>1</v>
       </c>
+      <c r="F403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -9848,6 +10495,7 @@
       <c r="E404" t="n">
         <v>1</v>
       </c>
+      <c r="F404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -9871,6 +10519,7 @@
       <c r="E405" t="n">
         <v>1</v>
       </c>
+      <c r="F405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -9894,6 +10543,7 @@
       <c r="E406" t="n">
         <v>1</v>
       </c>
+      <c r="F406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -9917,6 +10567,7 @@
       <c r="E407" t="n">
         <v>1</v>
       </c>
+      <c r="F407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -9940,6 +10591,7 @@
       <c r="E408" t="n">
         <v>1</v>
       </c>
+      <c r="F408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -9963,6 +10615,7 @@
       <c r="E409" t="n">
         <v>1</v>
       </c>
+      <c r="F409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9986,6 +10639,7 @@
       <c r="E410" t="n">
         <v>1</v>
       </c>
+      <c r="F410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -10009,6 +10663,7 @@
       <c r="E411" t="n">
         <v>1</v>
       </c>
+      <c r="F411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -10032,6 +10687,7 @@
       <c r="E412" t="n">
         <v>1</v>
       </c>
+      <c r="F412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -10055,6 +10711,7 @@
       <c r="E413" t="n">
         <v>1</v>
       </c>
+      <c r="F413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -10078,6 +10735,7 @@
       <c r="E414" t="n">
         <v>1</v>
       </c>
+      <c r="F414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -10101,6 +10759,7 @@
       <c r="E415" t="n">
         <v>1</v>
       </c>
+      <c r="F415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -10124,6 +10783,7 @@
       <c r="E416" t="n">
         <v>1</v>
       </c>
+      <c r="F416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -10147,6 +10807,7 @@
       <c r="E417" t="n">
         <v>1</v>
       </c>
+      <c r="F417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -10170,6 +10831,7 @@
       <c r="E418" t="n">
         <v>1</v>
       </c>
+      <c r="F418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -10193,6 +10855,7 @@
       <c r="E419" t="n">
         <v>1</v>
       </c>
+      <c r="F419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -10216,6 +10879,7 @@
       <c r="E420" t="n">
         <v>1</v>
       </c>
+      <c r="F420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -10239,6 +10903,7 @@
       <c r="E421" t="n">
         <v>1</v>
       </c>
+      <c r="F421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -10262,6 +10927,7 @@
       <c r="E422" t="n">
         <v>1</v>
       </c>
+      <c r="F422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -10285,6 +10951,7 @@
       <c r="E423" t="n">
         <v>1</v>
       </c>
+      <c r="F423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -10308,6 +10975,7 @@
       <c r="E424" t="n">
         <v>1</v>
       </c>
+      <c r="F424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -10331,6 +10999,7 @@
       <c r="E425" t="n">
         <v>1</v>
       </c>
+      <c r="F425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -10354,6 +11023,7 @@
       <c r="E426" t="n">
         <v>1</v>
       </c>
+      <c r="F426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -10377,6 +11047,7 @@
       <c r="E427" t="n">
         <v>1</v>
       </c>
+      <c r="F427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -10400,6 +11071,7 @@
       <c r="E428" t="n">
         <v>1</v>
       </c>
+      <c r="F428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -10423,6 +11095,7 @@
       <c r="E429" t="n">
         <v>1</v>
       </c>
+      <c r="F429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -10446,6 +11119,7 @@
       <c r="E430" t="n">
         <v>1</v>
       </c>
+      <c r="F430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -10469,6 +11143,7 @@
       <c r="E431" t="n">
         <v>1</v>
       </c>
+      <c r="F431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -10492,6 +11167,7 @@
       <c r="E432" t="n">
         <v>1</v>
       </c>
+      <c r="F432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -10515,6 +11191,7 @@
       <c r="E433" t="n">
         <v>1</v>
       </c>
+      <c r="F433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -10538,6 +11215,7 @@
       <c r="E434" t="n">
         <v>1</v>
       </c>
+      <c r="F434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -10561,6 +11239,7 @@
       <c r="E435" t="n">
         <v>1</v>
       </c>
+      <c r="F435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -10584,6 +11263,7 @@
       <c r="E436" t="n">
         <v>1</v>
       </c>
+      <c r="F436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -10607,6 +11287,7 @@
       <c r="E437" t="n">
         <v>1</v>
       </c>
+      <c r="F437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -10630,6 +11311,7 @@
       <c r="E438" t="n">
         <v>1</v>
       </c>
+      <c r="F438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -10653,6 +11335,7 @@
       <c r="E439" t="n">
         <v>1</v>
       </c>
+      <c r="F439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -10676,6 +11359,7 @@
       <c r="E440" t="n">
         <v>1</v>
       </c>
+      <c r="F440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -10699,6 +11383,7 @@
       <c r="E441" t="n">
         <v>1</v>
       </c>
+      <c r="F441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -10722,6 +11407,7 @@
       <c r="E442" t="n">
         <v>1</v>
       </c>
+      <c r="F442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -10745,6 +11431,7 @@
       <c r="E443" t="n">
         <v>1</v>
       </c>
+      <c r="F443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -10768,6 +11455,7 @@
       <c r="E444" t="n">
         <v>1</v>
       </c>
+      <c r="F444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -10791,6 +11479,7 @@
       <c r="E445" t="n">
         <v>1</v>
       </c>
+      <c r="F445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -10814,6 +11503,7 @@
       <c r="E446" t="n">
         <v>1</v>
       </c>
+      <c r="F446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -10837,6 +11527,7 @@
       <c r="E447" t="n">
         <v>1</v>
       </c>
+      <c r="F447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -10860,6 +11551,7 @@
       <c r="E448" t="n">
         <v>1</v>
       </c>
+      <c r="F448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -10883,6 +11575,7 @@
       <c r="E449" t="n">
         <v>1</v>
       </c>
+      <c r="F449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -10906,6 +11599,7 @@
       <c r="E450" t="n">
         <v>1</v>
       </c>
+      <c r="F450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -10929,6 +11623,7 @@
       <c r="E451" t="n">
         <v>1</v>
       </c>
+      <c r="F451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -10952,6 +11647,7 @@
       <c r="E452" t="n">
         <v>1</v>
       </c>
+      <c r="F452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -10975,6 +11671,7 @@
       <c r="E453" t="n">
         <v>1</v>
       </c>
+      <c r="F453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -10998,6 +11695,7 @@
       <c r="E454" t="n">
         <v>1</v>
       </c>
+      <c r="F454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -11021,6 +11719,7 @@
       <c r="E455" t="n">
         <v>1</v>
       </c>
+      <c r="F455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -11044,6 +11743,7 @@
       <c r="E456" t="n">
         <v>1</v>
       </c>
+      <c r="F456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -11067,6 +11767,7 @@
       <c r="E457" t="n">
         <v>1</v>
       </c>
+      <c r="F457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -11090,6 +11791,7 @@
       <c r="E458" t="n">
         <v>1</v>
       </c>
+      <c r="F458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -11113,6 +11815,7 @@
       <c r="E459" t="n">
         <v>1</v>
       </c>
+      <c r="F459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -11136,6 +11839,7 @@
       <c r="E460" t="n">
         <v>1</v>
       </c>
+      <c r="F460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -11159,6 +11863,7 @@
       <c r="E461" t="n">
         <v>1</v>
       </c>
+      <c r="F461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -11182,6 +11887,7 @@
       <c r="E462" t="n">
         <v>1</v>
       </c>
+      <c r="F462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -11205,6 +11911,7 @@
       <c r="E463" t="n">
         <v>1</v>
       </c>
+      <c r="F463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -11228,6 +11935,7 @@
       <c r="E464" t="n">
         <v>1</v>
       </c>
+      <c r="F464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -11251,6 +11959,7 @@
       <c r="E465" t="n">
         <v>1</v>
       </c>
+      <c r="F465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -11274,6 +11983,7 @@
       <c r="E466" t="n">
         <v>1</v>
       </c>
+      <c r="F466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -11297,6 +12007,7 @@
       <c r="E467" t="n">
         <v>1</v>
       </c>
+      <c r="F467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -11320,6 +12031,7 @@
       <c r="E468" t="n">
         <v>1</v>
       </c>
+      <c r="F468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -11343,6 +12055,7 @@
       <c r="E469" t="n">
         <v>1</v>
       </c>
+      <c r="F469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -11366,6 +12079,7 @@
       <c r="E470" t="n">
         <v>1</v>
       </c>
+      <c r="F470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -11389,6 +12103,7 @@
       <c r="E471" t="n">
         <v>1</v>
       </c>
+      <c r="F471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -11412,6 +12127,7 @@
       <c r="E472" t="n">
         <v>1</v>
       </c>
+      <c r="F472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -11435,6 +12151,7 @@
       <c r="E473" t="n">
         <v>1</v>
       </c>
+      <c r="F473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -11458,6 +12175,7 @@
       <c r="E474" t="n">
         <v>1</v>
       </c>
+      <c r="F474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -11481,6 +12199,7 @@
       <c r="E475" t="n">
         <v>1</v>
       </c>
+      <c r="F475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -11504,6 +12223,7 @@
       <c r="E476" t="n">
         <v>1</v>
       </c>
+      <c r="F476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -11527,6 +12247,7 @@
       <c r="E477" t="n">
         <v>1</v>
       </c>
+      <c r="F477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -11550,6 +12271,7 @@
       <c r="E478" t="n">
         <v>1</v>
       </c>
+      <c r="F478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -11573,6 +12295,7 @@
       <c r="E479" t="n">
         <v>1</v>
       </c>
+      <c r="F479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -11596,6 +12319,7 @@
       <c r="E480" t="n">
         <v>1</v>
       </c>
+      <c r="F480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -11619,6 +12343,7 @@
       <c r="E481" t="n">
         <v>1</v>
       </c>
+      <c r="F481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -11642,6 +12367,7 @@
       <c r="E482" t="n">
         <v>1</v>
       </c>
+      <c r="F482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -11665,6 +12391,7 @@
       <c r="E483" t="n">
         <v>1</v>
       </c>
+      <c r="F483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -11688,6 +12415,7 @@
       <c r="E484" t="n">
         <v>1</v>
       </c>
+      <c r="F484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -11711,6 +12439,7 @@
       <c r="E485" t="n">
         <v>1</v>
       </c>
+      <c r="F485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -11734,6 +12463,7 @@
       <c r="E486" t="n">
         <v>1</v>
       </c>
+      <c r="F486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -11757,6 +12487,7 @@
       <c r="E487" t="n">
         <v>1</v>
       </c>
+      <c r="F487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -11780,6 +12511,7 @@
       <c r="E488" t="n">
         <v>1</v>
       </c>
+      <c r="F488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -11803,6 +12535,7 @@
       <c r="E489" t="n">
         <v>1</v>
       </c>
+      <c r="F489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -11826,6 +12559,7 @@
       <c r="E490" t="n">
         <v>1</v>
       </c>
+      <c r="F490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -11849,6 +12583,7 @@
       <c r="E491" t="n">
         <v>1</v>
       </c>
+      <c r="F491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -11872,6 +12607,7 @@
       <c r="E492" t="n">
         <v>1</v>
       </c>
+      <c r="F492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -11895,6 +12631,7 @@
       <c r="E493" t="n">
         <v>1</v>
       </c>
+      <c r="F493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -11918,6 +12655,7 @@
       <c r="E494" t="n">
         <v>1</v>
       </c>
+      <c r="F494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -11941,6 +12679,7 @@
       <c r="E495" t="n">
         <v>1</v>
       </c>
+      <c r="F495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -11964,6 +12703,7 @@
       <c r="E496" t="n">
         <v>1</v>
       </c>
+      <c r="F496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -11987,6 +12727,7 @@
       <c r="E497" t="n">
         <v>1</v>
       </c>
+      <c r="F497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -12010,6 +12751,7 @@
       <c r="E498" t="n">
         <v>1</v>
       </c>
+      <c r="F498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -12033,6 +12775,7 @@
       <c r="E499" t="n">
         <v>1</v>
       </c>
+      <c r="F499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -12056,6 +12799,7 @@
       <c r="E500" t="n">
         <v>1</v>
       </c>
+      <c r="F500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -12079,6 +12823,7 @@
       <c r="E501" t="n">
         <v>1</v>
       </c>
+      <c r="F501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -12102,6 +12847,7 @@
       <c r="E502" t="n">
         <v>1</v>
       </c>
+      <c r="F502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -12125,6 +12871,7 @@
       <c r="E503" t="n">
         <v>1</v>
       </c>
+      <c r="F503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -12148,6 +12895,7 @@
       <c r="E504" t="n">
         <v>1</v>
       </c>
+      <c r="F504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -12171,6 +12919,7 @@
       <c r="E505" t="n">
         <v>1</v>
       </c>
+      <c r="F505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -12194,6 +12943,7 @@
       <c r="E506" t="n">
         <v>1</v>
       </c>
+      <c r="F506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -12217,6 +12967,7 @@
       <c r="E507" t="n">
         <v>1</v>
       </c>
+      <c r="F507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -12240,6 +12991,7 @@
       <c r="E508" t="n">
         <v>1</v>
       </c>
+      <c r="F508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -12263,6 +13015,7 @@
       <c r="E509" t="n">
         <v>1</v>
       </c>
+      <c r="F509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -12286,6 +13039,7 @@
       <c r="E510" t="n">
         <v>1</v>
       </c>
+      <c r="F510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -12309,6 +13063,7 @@
       <c r="E511" t="n">
         <v>1</v>
       </c>
+      <c r="F511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -12332,6 +13087,7 @@
       <c r="E512" t="n">
         <v>1</v>
       </c>
+      <c r="F512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -12355,6 +13111,7 @@
       <c r="E513" t="n">
         <v>1</v>
       </c>
+      <c r="F513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -12378,6 +13135,7 @@
       <c r="E514" t="n">
         <v>1</v>
       </c>
+      <c r="F514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -12401,6 +13159,7 @@
       <c r="E515" t="n">
         <v>1</v>
       </c>
+      <c r="F515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -12424,6 +13183,7 @@
       <c r="E516" t="n">
         <v>1</v>
       </c>
+      <c r="F516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -12447,6 +13207,7 @@
       <c r="E517" t="n">
         <v>1</v>
       </c>
+      <c r="F517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -12470,6 +13231,7 @@
       <c r="E518" t="n">
         <v>1</v>
       </c>
+      <c r="F518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -12493,6 +13255,7 @@
       <c r="E519" t="n">
         <v>1</v>
       </c>
+      <c r="F519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -12516,6 +13279,7 @@
       <c r="E520" t="n">
         <v>1</v>
       </c>
+      <c r="F520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -12539,6 +13303,7 @@
       <c r="E521" t="n">
         <v>1</v>
       </c>
+      <c r="F521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -12562,6 +13327,7 @@
       <c r="E522" t="n">
         <v>1</v>
       </c>
+      <c r="F522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -12585,6 +13351,7 @@
       <c r="E523" t="n">
         <v>1</v>
       </c>
+      <c r="F523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -12608,6 +13375,7 @@
       <c r="E524" t="n">
         <v>1</v>
       </c>
+      <c r="F524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -12631,6 +13399,7 @@
       <c r="E525" t="n">
         <v>1</v>
       </c>
+      <c r="F525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -12654,6 +13423,7 @@
       <c r="E526" t="n">
         <v>1</v>
       </c>
+      <c r="F526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -12677,6 +13447,7 @@
       <c r="E527" t="n">
         <v>1</v>
       </c>
+      <c r="F527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -12700,6 +13471,7 @@
       <c r="E528" t="n">
         <v>1</v>
       </c>
+      <c r="F528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -12723,6 +13495,7 @@
       <c r="E529" t="n">
         <v>1</v>
       </c>
+      <c r="F529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -12746,6 +13519,7 @@
       <c r="E530" t="n">
         <v>1</v>
       </c>
+      <c r="F530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -12769,6 +13543,7 @@
       <c r="E531" t="n">
         <v>1</v>
       </c>
+      <c r="F531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -12792,6 +13567,7 @@
       <c r="E532" t="n">
         <v>1</v>
       </c>
+      <c r="F532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -12815,6 +13591,7 @@
       <c r="E533" t="n">
         <v>1</v>
       </c>
+      <c r="F533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -12838,6 +13615,7 @@
       <c r="E534" t="n">
         <v>1</v>
       </c>
+      <c r="F534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -12861,6 +13639,7 @@
       <c r="E535" t="n">
         <v>1</v>
       </c>
+      <c r="F535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -12884,6 +13663,7 @@
       <c r="E536" t="n">
         <v>1</v>
       </c>
+      <c r="F536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -12907,6 +13687,7 @@
       <c r="E537" t="n">
         <v>1</v>
       </c>
+      <c r="F537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -12930,6 +13711,7 @@
       <c r="E538" t="n">
         <v>1</v>
       </c>
+      <c r="F538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -12953,6 +13735,7 @@
       <c r="E539" t="n">
         <v>1</v>
       </c>
+      <c r="F539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -12976,6 +13759,7 @@
       <c r="E540" t="n">
         <v>1</v>
       </c>
+      <c r="F540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -12999,6 +13783,7 @@
       <c r="E541" t="n">
         <v>1</v>
       </c>
+      <c r="F541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -13022,6 +13807,7 @@
       <c r="E542" t="n">
         <v>1</v>
       </c>
+      <c r="F542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -13045,6 +13831,7 @@
       <c r="E543" t="n">
         <v>1</v>
       </c>
+      <c r="F543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -13068,6 +13855,7 @@
       <c r="E544" t="n">
         <v>1</v>
       </c>
+      <c r="F544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -13091,6 +13879,7 @@
       <c r="E545" t="n">
         <v>1</v>
       </c>
+      <c r="F545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -13114,6 +13903,7 @@
       <c r="E546" t="n">
         <v>1</v>
       </c>
+      <c r="F546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -13137,6 +13927,7 @@
       <c r="E547" t="n">
         <v>1</v>
       </c>
+      <c r="F547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -13160,6 +13951,7 @@
       <c r="E548" t="n">
         <v>1</v>
       </c>
+      <c r="F548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -13183,6 +13975,7 @@
       <c r="E549" t="n">
         <v>1</v>
       </c>
+      <c r="F549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -13206,6 +13999,7 @@
       <c r="E550" t="n">
         <v>1</v>
       </c>
+      <c r="F550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -13229,6 +14023,7 @@
       <c r="E551" t="n">
         <v>1</v>
       </c>
+      <c r="F551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -13252,6 +14047,7 @@
       <c r="E552" t="n">
         <v>1</v>
       </c>
+      <c r="F552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -13275,6 +14071,7 @@
       <c r="E553" t="n">
         <v>1</v>
       </c>
+      <c r="F553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -13298,6 +14095,7 @@
       <c r="E554" t="n">
         <v>1</v>
       </c>
+      <c r="F554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -13321,6 +14119,7 @@
       <c r="E555" t="n">
         <v>1</v>
       </c>
+      <c r="F555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -13344,6 +14143,7 @@
       <c r="E556" t="n">
         <v>1</v>
       </c>
+      <c r="F556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -13367,6 +14167,7 @@
       <c r="E557" t="n">
         <v>1</v>
       </c>
+      <c r="F557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -13390,6 +14191,7 @@
       <c r="E558" t="n">
         <v>1</v>
       </c>
+      <c r="F558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -13413,6 +14215,7 @@
       <c r="E559" t="n">
         <v>1</v>
       </c>
+      <c r="F559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -13436,6 +14239,7 @@
       <c r="E560" t="n">
         <v>1</v>
       </c>
+      <c r="F560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -13459,6 +14263,7 @@
       <c r="E561" t="n">
         <v>1</v>
       </c>
+      <c r="F561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -13482,6 +14287,7 @@
       <c r="E562" t="n">
         <v>1</v>
       </c>
+      <c r="F562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -13505,6 +14311,7 @@
       <c r="E563" t="n">
         <v>1</v>
       </c>
+      <c r="F563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -13528,6 +14335,7 @@
       <c r="E564" t="n">
         <v>1</v>
       </c>
+      <c r="F564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -13551,6 +14359,7 @@
       <c r="E565" t="n">
         <v>1</v>
       </c>
+      <c r="F565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -13574,6 +14383,7 @@
       <c r="E566" t="n">
         <v>1</v>
       </c>
+      <c r="F566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -13597,6 +14407,7 @@
       <c r="E567" t="n">
         <v>1</v>
       </c>
+      <c r="F567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -13620,6 +14431,7 @@
       <c r="E568" t="n">
         <v>1</v>
       </c>
+      <c r="F568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -13643,6 +14455,7 @@
       <c r="E569" t="n">
         <v>1</v>
       </c>
+      <c r="F569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -13666,6 +14479,7 @@
       <c r="E570" t="n">
         <v>1</v>
       </c>
+      <c r="F570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -13689,6 +14503,7 @@
       <c r="E571" t="n">
         <v>1</v>
       </c>
+      <c r="F571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -13712,6 +14527,7 @@
       <c r="E572" t="n">
         <v>1</v>
       </c>
+      <c r="F572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -13735,6 +14551,7 @@
       <c r="E573" t="n">
         <v>1</v>
       </c>
+      <c r="F573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -13758,6 +14575,7 @@
       <c r="E574" t="n">
         <v>1</v>
       </c>
+      <c r="F574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -13781,6 +14599,7 @@
       <c r="E575" t="n">
         <v>1</v>
       </c>
+      <c r="F575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -13804,6 +14623,7 @@
       <c r="E576" t="n">
         <v>1</v>
       </c>
+      <c r="F576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -13827,6 +14647,7 @@
       <c r="E577" t="n">
         <v>1</v>
       </c>
+      <c r="F577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -13850,6 +14671,7 @@
       <c r="E578" t="n">
         <v>1</v>
       </c>
+      <c r="F578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -13873,6 +14695,7 @@
       <c r="E579" t="n">
         <v>1</v>
       </c>
+      <c r="F579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -13896,6 +14719,7 @@
       <c r="E580" t="n">
         <v>1</v>
       </c>
+      <c r="F580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -13919,6 +14743,7 @@
       <c r="E581" t="n">
         <v>1</v>
       </c>
+      <c r="F581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -13942,6 +14767,7 @@
       <c r="E582" t="n">
         <v>1</v>
       </c>
+      <c r="F582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -13965,6 +14791,7 @@
       <c r="E583" t="n">
         <v>1</v>
       </c>
+      <c r="F583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -13988,6 +14815,7 @@
       <c r="E584" t="n">
         <v>1</v>
       </c>
+      <c r="F584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -14011,6 +14839,7 @@
       <c r="E585" t="n">
         <v>1</v>
       </c>
+      <c r="F585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -14034,6 +14863,7 @@
       <c r="E586" t="n">
         <v>1</v>
       </c>
+      <c r="F586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -14057,6 +14887,7 @@
       <c r="E587" t="n">
         <v>1</v>
       </c>
+      <c r="F587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -14080,6 +14911,7 @@
       <c r="E588" t="n">
         <v>1</v>
       </c>
+      <c r="F588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -14103,6 +14935,7 @@
       <c r="E589" t="n">
         <v>1</v>
       </c>
+      <c r="F589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -14126,6 +14959,7 @@
       <c r="E590" t="n">
         <v>1</v>
       </c>
+      <c r="F590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -14149,6 +14983,7 @@
       <c r="E591" t="n">
         <v>1</v>
       </c>
+      <c r="F591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -14172,6 +15007,7 @@
       <c r="E592" t="n">
         <v>1</v>
       </c>
+      <c r="F592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -14195,6 +15031,7 @@
       <c r="E593" t="n">
         <v>1</v>
       </c>
+      <c r="F593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -14218,6 +15055,7 @@
       <c r="E594" t="n">
         <v>1</v>
       </c>
+      <c r="F594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -14241,6 +15079,7 @@
       <c r="E595" t="n">
         <v>1</v>
       </c>
+      <c r="F595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -14264,6 +15103,7 @@
       <c r="E596" t="n">
         <v>1</v>
       </c>
+      <c r="F596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -14287,6 +15127,7 @@
       <c r="E597" t="n">
         <v>1</v>
       </c>
+      <c r="F597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -14310,6 +15151,7 @@
       <c r="E598" t="n">
         <v>1</v>
       </c>
+      <c r="F598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -14333,6 +15175,7 @@
       <c r="E599" t="n">
         <v>1</v>
       </c>
+      <c r="F599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -14356,6 +15199,7 @@
       <c r="E600" t="n">
         <v>1</v>
       </c>
+      <c r="F600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -14379,6 +15223,7 @@
       <c r="E601" t="n">
         <v>1</v>
       </c>
+      <c r="F601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -14402,6 +15247,7 @@
       <c r="E602" t="n">
         <v>1</v>
       </c>
+      <c r="F602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -14425,6 +15271,7 @@
       <c r="E603" t="n">
         <v>1</v>
       </c>
+      <c r="F603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -14448,6 +15295,7 @@
       <c r="E604" t="n">
         <v>1</v>
       </c>
+      <c r="F604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -14471,6 +15319,7 @@
       <c r="E605" t="n">
         <v>1</v>
       </c>
+      <c r="F605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -14494,6 +15343,7 @@
       <c r="E606" t="n">
         <v>1</v>
       </c>
+      <c r="F606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -14517,6 +15367,7 @@
       <c r="E607" t="n">
         <v>1</v>
       </c>
+      <c r="F607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -14540,6 +15391,7 @@
       <c r="E608" t="n">
         <v>1</v>
       </c>
+      <c r="F608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -14563,6 +15415,7 @@
       <c r="E609" t="n">
         <v>1</v>
       </c>
+      <c r="F609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -14586,6 +15439,7 @@
       <c r="E610" t="n">
         <v>1</v>
       </c>
+      <c r="F610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -14609,6 +15463,7 @@
       <c r="E611" t="n">
         <v>1</v>
       </c>
+      <c r="F611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -14632,6 +15487,7 @@
       <c r="E612" t="n">
         <v>1</v>
       </c>
+      <c r="F612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -14655,6 +15511,7 @@
       <c r="E613" t="n">
         <v>1</v>
       </c>
+      <c r="F613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -14678,6 +15535,7 @@
       <c r="E614" t="n">
         <v>1</v>
       </c>
+      <c r="F614" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CSSCI期刊.xlsx
+++ b/CSSCI期刊.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F614"/>
+  <dimension ref="A1:G614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Unnamed: 5</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +495,7 @@
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -516,6 +522,7 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -542,6 +549,7 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -568,6 +576,7 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -594,6 +603,7 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -620,6 +630,7 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -646,6 +657,7 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -672,6 +684,7 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -698,6 +711,7 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -724,6 +738,7 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -750,6 +765,7 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -776,6 +792,7 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -802,6 +819,7 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -828,6 +846,7 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -854,6 +873,7 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -880,6 +900,7 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -906,6 +927,7 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -932,6 +954,7 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -958,6 +981,7 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -984,6 +1008,7 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1010,6 +1035,7 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1036,6 +1062,7 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1062,6 +1089,7 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1088,6 +1116,7 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1114,6 +1143,7 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1140,6 +1170,7 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1166,6 +1197,7 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1192,6 +1224,7 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1218,6 +1251,7 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1244,6 +1278,7 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1270,6 +1305,7 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1296,6 +1332,7 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1322,6 +1359,7 @@
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1348,6 +1386,7 @@
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1374,6 +1413,7 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1400,6 +1440,7 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1426,6 +1467,7 @@
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1452,6 +1494,7 @@
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1478,6 +1521,7 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1504,6 +1548,7 @@
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1530,6 +1575,7 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1556,6 +1602,7 @@
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1582,6 +1629,7 @@
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1608,6 +1656,7 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1634,6 +1683,7 @@
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1660,6 +1710,7 @@
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1686,6 +1737,7 @@
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1712,6 +1764,7 @@
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1738,6 +1791,7 @@
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1764,6 +1818,7 @@
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1790,6 +1845,7 @@
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1816,6 +1872,7 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1842,6 +1899,7 @@
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1868,6 +1926,7 @@
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1894,6 +1953,7 @@
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1920,6 +1980,7 @@
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1946,6 +2007,7 @@
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1972,6 +2034,7 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1998,6 +2061,7 @@
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2024,6 +2088,7 @@
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2050,6 +2115,7 @@
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2076,6 +2142,7 @@
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2106,6 +2173,7 @@
           <t>ERROR</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2136,6 +2204,7 @@
           <t>ERROR</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2162,6 +2231,7 @@
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2188,6 +2258,7 @@
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2214,6 +2285,7 @@
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2240,6 +2312,7 @@
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2266,6 +2339,7 @@
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2292,6 +2366,7 @@
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2318,6 +2393,7 @@
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2344,6 +2420,7 @@
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2370,6 +2447,7 @@
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2396,6 +2474,7 @@
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2422,6 +2501,7 @@
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2448,6 +2528,7 @@
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2474,6 +2555,7 @@
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2500,6 +2582,7 @@
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2526,6 +2609,7 @@
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2552,6 +2636,7 @@
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2578,6 +2663,7 @@
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2604,6 +2690,7 @@
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2630,6 +2717,7 @@
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2656,6 +2744,7 @@
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2682,6 +2771,7 @@
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2708,6 +2798,7 @@
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2734,6 +2825,7 @@
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2760,6 +2852,7 @@
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2786,6 +2879,7 @@
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2812,6 +2906,7 @@
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2838,6 +2933,7 @@
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2864,6 +2960,7 @@
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2890,6 +2987,7 @@
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2916,6 +3014,7 @@
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2942,6 +3041,7 @@
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2968,6 +3068,7 @@
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2994,6 +3095,7 @@
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3020,6 +3122,7 @@
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3046,6 +3149,7 @@
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3072,6 +3176,7 @@
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3098,6 +3203,7 @@
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3124,6 +3230,7 @@
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3150,6 +3257,7 @@
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3176,6 +3284,7 @@
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3206,6 +3315,7 @@
           <t>ERROR</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3232,6 +3342,7 @@
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3258,6 +3369,7 @@
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3284,6 +3396,7 @@
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3310,6 +3423,7 @@
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3336,6 +3450,7 @@
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3362,6 +3477,7 @@
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3388,6 +3504,7 @@
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3418,6 +3535,7 @@
           <t>ERROR</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3448,6 +3566,7 @@
           <t>ERROR</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3474,6 +3593,7 @@
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3502,6 +3622,7 @@
           <t>ERROR</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3528,6 +3649,7 @@
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3554,6 +3676,7 @@
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3580,6 +3703,7 @@
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3606,6 +3730,7 @@
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3632,6 +3757,7 @@
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3658,6 +3784,7 @@
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3684,6 +3811,7 @@
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3710,6 +3838,7 @@
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3736,6 +3865,7 @@
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3762,6 +3892,7 @@
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3788,6 +3919,7 @@
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3814,6 +3946,7 @@
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3840,6 +3973,7 @@
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3866,6 +4000,7 @@
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3892,6 +4027,7 @@
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3918,6 +4054,7 @@
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3944,6 +4081,7 @@
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3970,6 +4108,7 @@
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3996,6 +4135,7 @@
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4022,6 +4162,7 @@
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4048,6 +4189,7 @@
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4074,6 +4216,7 @@
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4100,6 +4243,7 @@
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4126,6 +4270,7 @@
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4152,6 +4297,7 @@
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4178,6 +4324,7 @@
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4204,6 +4351,7 @@
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4230,6 +4378,7 @@
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4256,6 +4405,7 @@
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4282,6 +4432,7 @@
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4308,6 +4459,7 @@
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4334,6 +4486,7 @@
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4360,6 +4513,7 @@
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4386,6 +4540,7 @@
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4412,6 +4567,7 @@
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4438,6 +4594,7 @@
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4464,6 +4621,7 @@
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4490,6 +4648,7 @@
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4516,6 +4675,7 @@
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4542,6 +4702,7 @@
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4568,6 +4729,7 @@
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4594,6 +4756,7 @@
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4620,6 +4783,7 @@
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4646,6 +4810,7 @@
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4672,6 +4837,7 @@
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4698,6 +4864,7 @@
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4724,6 +4891,7 @@
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4750,6 +4918,7 @@
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4776,6 +4945,7 @@
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4802,6 +4972,7 @@
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4828,6 +4999,7 @@
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4854,6 +5026,7 @@
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4880,6 +5053,7 @@
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4906,6 +5080,7 @@
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4926,10 +5101,21 @@
           <t>1018-1687</t>
         </is>
       </c>
-      <c r="E172" t="n">
-        <v>1</v>
-      </c>
-      <c r="F172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4950,10 +5136,13 @@
           <t>11-1078/F</t>
         </is>
       </c>
-      <c r="E173" t="n">
-        <v>1</v>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4974,10 +5163,13 @@
           <t>31-2074/F</t>
         </is>
       </c>
-      <c r="E174" t="n">
-        <v>1</v>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4998,10 +5190,13 @@
           <t>22-1063/C</t>
         </is>
       </c>
-      <c r="E175" t="n">
-        <v>1</v>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5022,10 +5217,13 @@
           <t>43-1069/C</t>
         </is>
       </c>
-      <c r="E176" t="n">
-        <v>1</v>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5046,10 +5244,13 @@
           <t>37-1377/C</t>
         </is>
       </c>
-      <c r="E177" t="n">
-        <v>1</v>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5070,10 +5271,13 @@
           <t>44-1285/C</t>
         </is>
       </c>
-      <c r="E178" t="n">
-        <v>1</v>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5094,10 +5298,13 @@
           <t>11-1930/TU</t>
         </is>
       </c>
-      <c r="E179" t="n">
-        <v>1</v>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5118,10 +5325,13 @@
           <t>32-1013/C</t>
         </is>
       </c>
-      <c r="E180" t="n">
-        <v>1</v>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5142,10 +5352,13 @@
           <t>42-1077/K</t>
         </is>
       </c>
-      <c r="E181" t="n">
-        <v>1</v>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5166,10 +5379,13 @@
           <t>42-1018/C</t>
         </is>
       </c>
-      <c r="E182" t="n">
-        <v>1</v>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5190,10 +5406,13 @@
           <t>34-1003/GO</t>
         </is>
       </c>
-      <c r="E183" t="n">
-        <v>1</v>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5214,10 +5433,13 @@
           <t>32-1048/G4</t>
         </is>
       </c>
-      <c r="E184" t="n">
-        <v>1</v>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5238,10 +5460,13 @@
           <t>32-1312/C</t>
         </is>
       </c>
-      <c r="E185" t="n">
-        <v>1</v>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5262,10 +5487,13 @@
           <t>32-1562/C</t>
         </is>
       </c>
-      <c r="E186" t="n">
-        <v>1</v>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5286,10 +5514,13 @@
           <t>36-1224/F</t>
         </is>
       </c>
-      <c r="E187" t="n">
-        <v>1</v>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5310,10 +5541,13 @@
           <t>36-1001/C</t>
         </is>
       </c>
-      <c r="E188" t="n">
-        <v>1</v>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5334,10 +5568,13 @@
           <t>36-1025/C</t>
         </is>
       </c>
-      <c r="E189" t="n">
-        <v>1</v>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5358,10 +5595,13 @@
           <t>11-5147/G4</t>
         </is>
       </c>
-      <c r="E190" t="n">
-        <v>1</v>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5382,10 +5622,13 @@
           <t>11-1454/G4</t>
         </is>
       </c>
-      <c r="E191" t="n">
-        <v>1</v>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5406,10 +5649,13 @@
           <t>31-1772/G4</t>
         </is>
       </c>
-      <c r="E192" t="n">
-        <v>1</v>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -5430,10 +5676,13 @@
           <t>21-1066/G4</t>
         </is>
       </c>
-      <c r="E193" t="n">
-        <v>1</v>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5454,10 +5703,17 @@
           <t>2073-753X</t>
         </is>
       </c>
-      <c r="E194" t="n">
-        <v>1</v>
-      </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5478,10 +5734,13 @@
           <t>1993-5633</t>
         </is>
       </c>
-      <c r="E195" t="n">
-        <v>1</v>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5502,10 +5761,17 @@
           <t>1011-5714</t>
         </is>
       </c>
-      <c r="E196" t="n">
-        <v>1</v>
-      </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5526,10 +5792,13 @@
           <t>11-5306/G4</t>
         </is>
       </c>
-      <c r="E197" t="n">
-        <v>1</v>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5550,10 +5819,13 @@
           <t>11-1281/G4</t>
         </is>
       </c>
-      <c r="E198" t="n">
-        <v>1</v>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5574,10 +5846,13 @@
           <t>42-1041/G4</t>
         </is>
       </c>
-      <c r="E199" t="n">
-        <v>1</v>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5598,10 +5873,13 @@
           <t>42-1268/G4</t>
         </is>
       </c>
-      <c r="E200" t="n">
-        <v>1</v>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5622,10 +5900,13 @@
           <t>44-1696/F</t>
         </is>
       </c>
-      <c r="E201" t="n">
-        <v>1</v>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5646,10 +5927,13 @@
           <t>11-4613/F</t>
         </is>
       </c>
-      <c r="E202" t="n">
-        <v>1</v>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5670,10 +5954,13 @@
           <t>11-5865/F</t>
         </is>
       </c>
-      <c r="E203" t="n">
-        <v>1</v>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5694,10 +5981,13 @@
           <t>11-1268/F</t>
         </is>
       </c>
-      <c r="E204" t="n">
-        <v>1</v>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5718,10 +6008,13 @@
           <t>11-1215/K</t>
         </is>
       </c>
-      <c r="E205" t="n">
-        <v>1</v>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5742,10 +6035,13 @@
           <t>43-1126/K</t>
         </is>
       </c>
-      <c r="E206" t="n">
-        <v>1</v>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5766,10 +6062,13 @@
           <t>11-1047/F</t>
         </is>
       </c>
-      <c r="E207" t="n">
-        <v>1</v>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5790,10 +6089,13 @@
           <t>41-1421/F</t>
         </is>
       </c>
-      <c r="E208" t="n">
-        <v>1</v>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5814,10 +6116,13 @@
           <t>11-1564/F</t>
         </is>
       </c>
-      <c r="E209" t="n">
-        <v>1</v>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5838,10 +6143,13 @@
           <t>11-1517/F</t>
         </is>
       </c>
-      <c r="E210" t="n">
-        <v>1</v>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5862,10 +6170,17 @@
           <t>1018-161x</t>
         </is>
       </c>
-      <c r="E211" t="n">
-        <v>1</v>
-      </c>
-      <c r="F211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5886,10 +6201,17 @@
           <t>1018-3833</t>
         </is>
       </c>
-      <c r="E212" t="n">
-        <v>1</v>
-      </c>
-      <c r="F212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5910,10 +6232,13 @@
           <t>42-1348/F</t>
         </is>
       </c>
-      <c r="E213" t="n">
-        <v>1</v>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5934,10 +6259,13 @@
           <t>12-1443/K</t>
         </is>
       </c>
-      <c r="E214" t="n">
-        <v>1</v>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5958,10 +6286,13 @@
           <t>11-1591/F</t>
         </is>
       </c>
-      <c r="E215" t="n">
-        <v>1</v>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5982,10 +6313,13 @@
           <t>51-1027/F</t>
         </is>
       </c>
-      <c r="E216" t="n">
-        <v>1</v>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6006,10 +6340,13 @@
           <t>14-1058/F</t>
         </is>
       </c>
-      <c r="E217" t="n">
-        <v>1</v>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6030,10 +6367,13 @@
           <t>53-1006/F</t>
         </is>
       </c>
-      <c r="E218" t="n">
-        <v>1</v>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6054,10 +6394,13 @@
           <t>11-6010/F</t>
         </is>
       </c>
-      <c r="E219" t="n">
-        <v>1</v>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6078,10 +6421,13 @@
           <t>10-1175/F</t>
         </is>
       </c>
-      <c r="E220" t="n">
-        <v>1</v>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6102,10 +6448,13 @@
           <t>11-1057/F</t>
         </is>
       </c>
-      <c r="E221" t="n">
-        <v>1</v>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6126,10 +6475,13 @@
           <t>51-1312/F</t>
         </is>
       </c>
-      <c r="E222" t="n">
-        <v>1</v>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6150,10 +6502,13 @@
           <t>11-1081/F</t>
         </is>
       </c>
-      <c r="E223" t="n">
-        <v>1</v>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6174,10 +6529,13 @@
           <t>11-1384/F</t>
         </is>
       </c>
-      <c r="E224" t="n">
-        <v>1</v>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6198,10 +6556,13 @@
           <t>22-1054/F</t>
         </is>
       </c>
-      <c r="E225" t="n">
-        <v>1</v>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -6222,10 +6583,13 @@
           <t>31-1724/G4</t>
         </is>
       </c>
-      <c r="E226" t="n">
-        <v>1</v>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -6246,10 +6610,13 @@
           <t>44-1034/C</t>
         </is>
       </c>
-      <c r="E227" t="n">
-        <v>1</v>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -6270,10 +6637,13 @@
           <t>11-2890/K</t>
         </is>
       </c>
-      <c r="E228" t="n">
-        <v>1</v>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -6294,10 +6664,13 @@
           <t>11-1208/K</t>
         </is>
       </c>
-      <c r="E229" t="n">
-        <v>1</v>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -6318,10 +6691,13 @@
           <t>11-1209/K</t>
         </is>
       </c>
-      <c r="E230" t="n">
-        <v>1</v>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -6342,10 +6718,13 @@
           <t>61-1010/K</t>
         </is>
       </c>
-      <c r="E231" t="n">
-        <v>1</v>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -6366,10 +6745,13 @@
           <t>42-1224/G3</t>
         </is>
       </c>
-      <c r="E232" t="n">
-        <v>1</v>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -6390,10 +6772,13 @@
           <t>11-3209/G3</t>
         </is>
       </c>
-      <c r="E233" t="n">
-        <v>1</v>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -6414,10 +6799,13 @@
           <t>15-1103/G3</t>
         </is>
       </c>
-      <c r="E234" t="n">
-        <v>1</v>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -6438,10 +6826,13 @@
           <t>14-1354/G3</t>
         </is>
       </c>
-      <c r="E235" t="n">
-        <v>1</v>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -6462,10 +6853,13 @@
           <t>11-3472/G3</t>
         </is>
       </c>
-      <c r="E236" t="n">
-        <v>1</v>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -6486,10 +6880,13 @@
           <t>11-2797/D</t>
         </is>
       </c>
-      <c r="E237" t="n">
-        <v>1</v>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -6510,10 +6907,13 @@
           <t>11-1805/G3</t>
         </is>
       </c>
-      <c r="E238" t="n">
-        <v>1</v>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -6534,10 +6934,13 @@
           <t>12-1117/G3</t>
         </is>
       </c>
-      <c r="E239" t="n">
-        <v>1</v>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6558,10 +6961,13 @@
           <t>11-1567/G3</t>
         </is>
       </c>
-      <c r="E240" t="n">
-        <v>1</v>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6582,10 +6988,13 @@
           <t>11-1278/G4</t>
         </is>
       </c>
-      <c r="E241" t="n">
-        <v>1</v>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6606,10 +7015,13 @@
           <t>37-1037/C</t>
         </is>
       </c>
-      <c r="E242" t="n">
-        <v>1</v>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6630,10 +7042,13 @@
           <t>62-1029/C</t>
         </is>
       </c>
-      <c r="E243" t="n">
-        <v>1</v>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6654,10 +7069,13 @@
           <t>10-1128/F</t>
         </is>
       </c>
-      <c r="E244" t="n">
-        <v>1</v>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6678,10 +7096,13 @@
           <t>11-3953/A</t>
         </is>
       </c>
-      <c r="E245" t="n">
-        <v>1</v>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6702,10 +7123,13 @@
           <t>14-1079/C</t>
         </is>
       </c>
-      <c r="E246" t="n">
-        <v>1</v>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6726,10 +7150,13 @@
           <t>23-1013/D</t>
         </is>
       </c>
-      <c r="E247" t="n">
-        <v>1</v>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6750,10 +7177,13 @@
           <t>37-1059/D</t>
         </is>
       </c>
-      <c r="E248" t="n">
-        <v>1</v>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6774,10 +7204,13 @@
           <t>51-1036/D</t>
         </is>
       </c>
-      <c r="E249" t="n">
-        <v>1</v>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6798,10 +7231,13 @@
           <t>11-1265/G2</t>
         </is>
       </c>
-      <c r="E250" t="n">
-        <v>1</v>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6822,10 +7258,13 @@
           <t>31-2157/K9</t>
         </is>
       </c>
-      <c r="E251" t="n">
-        <v>1</v>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6846,10 +7285,13 @@
           <t>11-1213/K</t>
         </is>
       </c>
-      <c r="E252" t="n">
-        <v>1</v>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6870,10 +7312,17 @@
           <t>1012-4195</t>
         </is>
       </c>
-      <c r="E253" t="n">
-        <v>1</v>
-      </c>
-      <c r="F253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6894,10 +7343,13 @@
           <t>31-1693/K</t>
         </is>
       </c>
-      <c r="E254" t="n">
-        <v>1</v>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6918,10 +7370,13 @@
           <t>11-1120/K</t>
         </is>
       </c>
-      <c r="E255" t="n">
-        <v>1</v>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6942,10 +7397,13 @@
           <t>43-1385/C</t>
         </is>
       </c>
-      <c r="E256" t="n">
-        <v>1</v>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6966,10 +7424,13 @@
           <t>44-1649/C</t>
         </is>
       </c>
-      <c r="E257" t="n">
-        <v>1</v>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6990,10 +7451,21 @@
           <t>10-1351/A</t>
         </is>
       </c>
-      <c r="E258" t="n">
-        <v>1</v>
-      </c>
-      <c r="F258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -7014,10 +7486,13 @@
           <t>11-3591/A</t>
         </is>
       </c>
-      <c r="E259" t="n">
-        <v>1</v>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -7038,10 +7513,13 @@
           <t>11-3040/A</t>
         </is>
       </c>
-      <c r="E260" t="n">
-        <v>1</v>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -7062,10 +7540,13 @@
           <t>31-1672/A</t>
         </is>
       </c>
-      <c r="E261" t="n">
-        <v>1</v>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -7086,10 +7567,13 @@
           <t>11-1170/C</t>
         </is>
       </c>
-      <c r="E262" t="n">
-        <v>1</v>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -7110,10 +7594,13 @@
           <t>11-1311/J</t>
         </is>
       </c>
-      <c r="E263" t="n">
-        <v>1</v>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -7134,10 +7621,13 @@
           <t>11-1190/J</t>
         </is>
       </c>
-      <c r="E264" t="n">
-        <v>1</v>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -7158,10 +7648,13 @@
           <t>32-1012/G2</t>
         </is>
       </c>
-      <c r="E265" t="n">
-        <v>1</v>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -7182,10 +7675,13 @@
           <t>37-1178/K</t>
         </is>
       </c>
-      <c r="E266" t="n">
-        <v>1</v>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -7206,10 +7702,13 @@
           <t>11-2688/G4</t>
         </is>
       </c>
-      <c r="E267" t="n">
-        <v>1</v>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -7230,10 +7729,13 @@
           <t>11-1443/I</t>
         </is>
       </c>
-      <c r="E268" t="n">
-        <v>1</v>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -7254,10 +7756,13 @@
           <t>51-1731/C</t>
         </is>
       </c>
-      <c r="E269" t="n">
-        <v>1</v>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -7278,10 +7783,13 @@
           <t>11-1217/C</t>
         </is>
       </c>
-      <c r="E270" t="n">
-        <v>1</v>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -7302,10 +7810,13 @@
           <t>45-1052/J</t>
         </is>
       </c>
-      <c r="E271" t="n">
-        <v>1</v>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -7326,10 +7837,13 @@
           <t>11-1216/H</t>
         </is>
       </c>
-      <c r="E272" t="n">
-        <v>1</v>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -7350,10 +7864,13 @@
           <t>32-1017/I</t>
         </is>
       </c>
-      <c r="E273" t="n">
-        <v>1</v>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -7374,10 +7891,13 @@
           <t>15-1011/C</t>
         </is>
       </c>
-      <c r="E274" t="n">
-        <v>1</v>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -7398,10 +7918,13 @@
           <t>36-1195/C</t>
         </is>
       </c>
-      <c r="E275" t="n">
-        <v>1</v>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -7422,10 +7945,13 @@
           <t>44-1068/F</t>
         </is>
       </c>
-      <c r="E276" t="n">
-        <v>1</v>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -7446,10 +7972,13 @@
           <t>45-1049/I</t>
         </is>
       </c>
-      <c r="E277" t="n">
-        <v>1</v>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -7470,10 +7999,13 @@
           <t>32-1084/C</t>
         </is>
       </c>
-      <c r="E278" t="n">
-        <v>1</v>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -7494,10 +8026,13 @@
           <t>32-1600/C</t>
         </is>
       </c>
-      <c r="E279" t="n">
-        <v>1</v>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -7518,10 +8053,13 @@
           <t>32-1302/C</t>
         </is>
       </c>
-      <c r="E280" t="n">
-        <v>1</v>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -7542,10 +8080,13 @@
           <t>32-1030/C</t>
         </is>
       </c>
-      <c r="E281" t="n">
-        <v>1</v>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -7566,10 +8107,13 @@
           <t>32-1008/J</t>
         </is>
       </c>
-      <c r="E282" t="n">
-        <v>1</v>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -7590,10 +8134,13 @@
           <t>12-1288/F</t>
         </is>
       </c>
-      <c r="E283" t="n">
-        <v>1</v>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -7614,10 +8161,13 @@
           <t>12-1028/F</t>
         </is>
       </c>
-      <c r="E284" t="n">
-        <v>1</v>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7638,10 +8188,13 @@
           <t>12-1027/C</t>
         </is>
       </c>
-      <c r="E285" t="n">
-        <v>1</v>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7662,10 +8215,13 @@
           <t>32-1754/C</t>
         </is>
       </c>
-      <c r="E286" t="n">
-        <v>1</v>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7686,10 +8242,13 @@
           <t>11-1306/C</t>
         </is>
       </c>
-      <c r="E287" t="n">
-        <v>1</v>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7710,10 +8269,13 @@
           <t>35-1054/C</t>
         </is>
       </c>
-      <c r="E288" t="n">
-        <v>1</v>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7734,10 +8296,13 @@
           <t>64-1001/C</t>
         </is>
       </c>
-      <c r="E289" t="n">
-        <v>1</v>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7758,10 +8323,13 @@
           <t>51-1029/F</t>
         </is>
       </c>
-      <c r="E290" t="n">
-        <v>1</v>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7782,10 +8350,13 @@
           <t>11-1883/S</t>
         </is>
       </c>
-      <c r="E291" t="n">
-        <v>1</v>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7806,10 +8377,13 @@
           <t>11-1323/F</t>
         </is>
       </c>
-      <c r="E292" t="n">
-        <v>1</v>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7830,10 +8404,13 @@
           <t>11-4899/C</t>
         </is>
       </c>
-      <c r="E293" t="n">
-        <v>1</v>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7854,10 +8431,13 @@
           <t>63-1001/C</t>
         </is>
       </c>
-      <c r="E294" t="n">
-        <v>1</v>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7878,10 +8458,13 @@
           <t>11-3280/C</t>
         </is>
       </c>
-      <c r="E295" t="n">
-        <v>1</v>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7902,10 +8485,13 @@
           <t>11-1610/G4</t>
         </is>
       </c>
-      <c r="E296" t="n">
-        <v>1</v>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7926,10 +8512,13 @@
           <t>11-3596/C</t>
         </is>
       </c>
-      <c r="E297" t="n">
-        <v>1</v>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7950,10 +8539,13 @@
           <t>11-5594/D</t>
         </is>
       </c>
-      <c r="E298" t="n">
-        <v>1</v>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7974,10 +8566,17 @@
           <t>2218-8517</t>
         </is>
       </c>
-      <c r="E299" t="n">
-        <v>1</v>
-      </c>
-      <c r="F299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7998,10 +8597,13 @@
           <t>11-2765/K</t>
         </is>
       </c>
-      <c r="E300" t="n">
-        <v>1</v>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -8022,10 +8624,13 @@
           <t>22-1264/G2</t>
         </is>
       </c>
-      <c r="E301" t="n">
-        <v>1</v>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -8046,10 +8651,13 @@
           <t>11-1762/G3</t>
         </is>
       </c>
-      <c r="E302" t="n">
-        <v>1</v>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -8070,10 +8678,13 @@
           <t>11-2257/G3</t>
         </is>
       </c>
-      <c r="E303" t="n">
-        <v>1</v>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -8094,10 +8705,13 @@
           <t>61-1167/G3</t>
         </is>
       </c>
-      <c r="E304" t="n">
-        <v>1</v>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -8118,10 +8732,13 @@
           <t>11-1448/G3</t>
         </is>
       </c>
-      <c r="E305" t="n">
-        <v>1</v>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -8142,10 +8759,13 @@
           <t>36-1003/D</t>
         </is>
       </c>
-      <c r="E306" t="n">
-        <v>1</v>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -8166,10 +8786,13 @@
           <t>11-1000/D</t>
         </is>
       </c>
-      <c r="E307" t="n">
-        <v>1</v>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -8190,10 +8813,13 @@
           <t>23-1070/C</t>
         </is>
       </c>
-      <c r="E308" t="n">
-        <v>1</v>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -8214,10 +8840,13 @@
           <t>43-1008/C</t>
         </is>
       </c>
-      <c r="E309" t="n">
-        <v>1</v>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -8238,10 +8867,13 @@
           <t>31-1842/G4</t>
         </is>
       </c>
-      <c r="E310" t="n">
-        <v>1</v>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -8262,10 +8894,13 @@
           <t>22-1017/C</t>
         </is>
       </c>
-      <c r="E311" t="n">
-        <v>1</v>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -8286,10 +8921,13 @@
           <t>11-1489/C</t>
         </is>
       </c>
-      <c r="E312" t="n">
-        <v>1</v>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -8310,10 +8948,13 @@
           <t>11-5646/F</t>
         </is>
       </c>
-      <c r="E313" t="n">
-        <v>1</v>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -8334,10 +8975,13 @@
           <t>11-1115/F</t>
         </is>
       </c>
-      <c r="E314" t="n">
-        <v>1</v>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -8358,10 +9002,13 @@
           <t>11-1963/Q</t>
         </is>
       </c>
-      <c r="E315" t="n">
-        <v>1</v>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -8382,10 +9029,13 @@
           <t>11-2961/D</t>
         </is>
       </c>
-      <c r="E316" t="n">
-        <v>1</v>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -8404,10 +9054,17 @@
       <c r="D317" t="n">
         <v>110065</v>
       </c>
-      <c r="E317" t="n">
-        <v>1</v>
-      </c>
-      <c r="F317" t="inlineStr"/>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -8428,10 +9085,17 @@
           <t>11-4090/D</t>
         </is>
       </c>
-      <c r="E318" t="n">
-        <v>1</v>
-      </c>
-      <c r="F318" t="inlineStr"/>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -8452,10 +9116,13 @@
           <t>61-1193/K</t>
         </is>
       </c>
-      <c r="E319" t="n">
-        <v>1</v>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -8476,10 +9143,13 @@
           <t>61-1005/C</t>
         </is>
       </c>
-      <c r="E320" t="n">
-        <v>1</v>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -8500,10 +9170,13 @@
           <t>11-2747/D</t>
         </is>
       </c>
-      <c r="E321" t="n">
-        <v>1</v>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -8524,10 +9197,13 @@
           <t>51-1268/G3</t>
         </is>
       </c>
-      <c r="E322" t="n">
-        <v>1</v>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -8548,10 +9224,13 @@
           <t>37-1100/C</t>
         </is>
       </c>
-      <c r="E323" t="n">
-        <v>1</v>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -8572,10 +9251,13 @@
           <t>37-1053/C</t>
         </is>
       </c>
-      <c r="E324" t="n">
-        <v>1</v>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -8596,10 +9278,17 @@
           <t>37-1066/C</t>
         </is>
       </c>
-      <c r="E325" t="n">
-        <v>1</v>
-      </c>
-      <c r="F325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -8620,10 +9309,13 @@
           <t>14-1221/F</t>
         </is>
       </c>
-      <c r="E326" t="n">
-        <v>1</v>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -8644,10 +9336,13 @@
           <t>14-1071/C</t>
         </is>
       </c>
-      <c r="E327" t="n">
-        <v>1</v>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -8668,10 +9363,13 @@
           <t>61-1012/C</t>
         </is>
       </c>
-      <c r="E328" t="n">
-        <v>1</v>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -8692,10 +9390,13 @@
           <t>33-1336/F</t>
         </is>
       </c>
-      <c r="E329" t="n">
-        <v>1</v>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -8716,10 +9417,13 @@
           <t>23-1364/F</t>
         </is>
       </c>
-      <c r="E330" t="n">
-        <v>1</v>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -8740,10 +9444,13 @@
           <t>31-1817/C</t>
         </is>
       </c>
-      <c r="E331" t="n">
-        <v>1</v>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8764,10 +9471,13 @@
           <t>31-1223/C</t>
         </is>
       </c>
-      <c r="E332" t="n">
-        <v>1</v>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8788,10 +9498,13 @@
           <t>31-1937/H</t>
         </is>
       </c>
-      <c r="E333" t="n">
-        <v>1</v>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8812,10 +9525,13 @@
           <t>31-1778/C</t>
         </is>
       </c>
-      <c r="E334" t="n">
-        <v>1</v>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8836,10 +9552,13 @@
           <t>31-1163/F</t>
         </is>
       </c>
-      <c r="E335" t="n">
-        <v>1</v>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8860,10 +9579,13 @@
           <t>31-1120/C</t>
         </is>
       </c>
-      <c r="E336" t="n">
-        <v>1</v>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8884,10 +9606,13 @@
           <t>31-1005/G8</t>
         </is>
       </c>
-      <c r="E337" t="n">
-        <v>1</v>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8908,10 +9633,13 @@
           <t>31-1815/G4</t>
         </is>
       </c>
-      <c r="E338" t="n">
-        <v>1</v>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8932,10 +9660,17 @@
           <t>1606-8327</t>
         </is>
       </c>
-      <c r="E339" t="n">
-        <v>1</v>
-      </c>
-      <c r="F339" t="inlineStr"/>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8956,10 +9691,17 @@
           <t>31-1123/C</t>
         </is>
       </c>
-      <c r="E340" t="n">
-        <v>1</v>
-      </c>
-      <c r="F340" t="inlineStr"/>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8980,10 +9722,21 @@
           <t>10-1472/C</t>
         </is>
       </c>
-      <c r="E341" t="n">
-        <v>1</v>
-      </c>
-      <c r="F341" t="inlineStr"/>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -9004,10 +9757,13 @@
           <t>10-1217/C</t>
         </is>
       </c>
-      <c r="E342" t="n">
-        <v>1</v>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -9028,10 +9784,21 @@
           <t>31-1112/C</t>
         </is>
       </c>
-      <c r="E343" t="n">
-        <v>1</v>
-      </c>
-      <c r="F343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -9052,10 +9819,13 @@
           <t>21-1012/C</t>
         </is>
       </c>
-      <c r="E344" t="n">
-        <v>1</v>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -9076,10 +9846,13 @@
           <t>51-1037/C</t>
         </is>
       </c>
-      <c r="E345" t="n">
-        <v>1</v>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -9100,10 +9873,13 @@
           <t>22-1002/C</t>
         </is>
       </c>
-      <c r="E346" t="n">
-        <v>1</v>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -9124,10 +9900,13 @@
           <t>10-1098/C</t>
         </is>
       </c>
-      <c r="E347" t="n">
-        <v>1</v>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -9148,10 +9927,13 @@
           <t>11-1100/C</t>
         </is>
       </c>
-      <c r="E348" t="n">
-        <v>1</v>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -9172,10 +9954,13 @@
           <t>42-1093/D</t>
         </is>
       </c>
-      <c r="E349" t="n">
-        <v>1</v>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -9196,10 +9981,13 @@
           <t>44-1030/C</t>
         </is>
       </c>
-      <c r="E350" t="n">
-        <v>1</v>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -9220,10 +10008,13 @@
           <t>21-1081/G8</t>
         </is>
       </c>
-      <c r="E351" t="n">
-        <v>1</v>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -9244,10 +10035,13 @@
           <t>11-1024/F</t>
         </is>
       </c>
-      <c r="E352" t="n">
-        <v>1</v>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -9268,10 +10062,13 @@
           <t>32-1317/F</t>
         </is>
       </c>
-      <c r="E353" t="n">
-        <v>1</v>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -9292,10 +10089,13 @@
           <t>31-1105/K</t>
         </is>
       </c>
-      <c r="E354" t="n">
-        <v>1</v>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -9316,10 +10116,13 @@
           <t>22-1064/K</t>
         </is>
       </c>
-      <c r="E355" t="n">
-        <v>1</v>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -9340,10 +10143,13 @@
           <t>11-2934/K</t>
         </is>
       </c>
-      <c r="E356" t="n">
-        <v>1</v>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -9364,10 +10170,13 @@
           <t>11-1667/K</t>
         </is>
       </c>
-      <c r="E357" t="n">
-        <v>1</v>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -9388,10 +10197,13 @@
           <t>41-1016/K</t>
         </is>
       </c>
-      <c r="E358" t="n">
-        <v>1</v>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -9412,10 +10224,13 @@
           <t>11-1473/H</t>
         </is>
       </c>
-      <c r="E359" t="n">
-        <v>1</v>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -9436,10 +10251,13 @@
           <t>11-1138/F</t>
         </is>
       </c>
-      <c r="E360" t="n">
-        <v>1</v>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -9460,10 +10278,13 @@
           <t>31-1139/F</t>
         </is>
       </c>
-      <c r="E361" t="n">
-        <v>1</v>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -9484,10 +10305,13 @@
           <t>31-1048/F</t>
         </is>
       </c>
-      <c r="E362" t="n">
-        <v>1</v>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -9508,10 +10332,13 @@
           <t>11-1343/F</t>
         </is>
       </c>
-      <c r="E363" t="n">
-        <v>1</v>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -9532,10 +10359,13 @@
           <t>32-1544/F</t>
         </is>
       </c>
-      <c r="E364" t="n">
-        <v>1</v>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -9556,10 +10386,13 @@
           <t>11-1046/K</t>
         </is>
       </c>
-      <c r="E365" t="n">
-        <v>1</v>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -9580,10 +10413,13 @@
           <t>11-3673/C</t>
         </is>
       </c>
-      <c r="E366" t="n">
-        <v>1</v>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -9604,10 +10440,13 @@
           <t>11-4748/B</t>
         </is>
       </c>
-      <c r="E367" t="n">
-        <v>1</v>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -9628,10 +10467,13 @@
           <t>11-3631/B</t>
         </is>
       </c>
-      <c r="E368" t="n">
-        <v>1</v>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -9652,10 +10494,13 @@
           <t>11-1299/B</t>
         </is>
       </c>
-      <c r="E369" t="n">
-        <v>1</v>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -9676,10 +10521,13 @@
           <t>11-3188/C</t>
         </is>
       </c>
-      <c r="E370" t="n">
-        <v>1</v>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -9700,10 +10548,21 @@
           <t>10-1478/G2</t>
         </is>
       </c>
-      <c r="E371" t="n">
-        <v>1</v>
-      </c>
-      <c r="F371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -9724,10 +10583,13 @@
           <t>11-2242/O1</t>
         </is>
       </c>
-      <c r="E372" t="n">
-        <v>1</v>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -9748,10 +10610,13 @@
           <t>11-1087/F</t>
         </is>
       </c>
-      <c r="E373" t="n">
-        <v>1</v>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -9772,10 +10637,13 @@
           <t>11-1011/F</t>
         </is>
       </c>
-      <c r="E374" t="n">
-        <v>1</v>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -9796,10 +10664,13 @@
           <t>11-2549/D</t>
         </is>
       </c>
-      <c r="E375" t="n">
-        <v>1</v>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -9820,10 +10691,13 @@
           <t>31-1220/G4</t>
         </is>
       </c>
-      <c r="E376" t="n">
-        <v>1</v>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -9844,10 +10718,13 @@
           <t>11-4062/G4</t>
         </is>
       </c>
-      <c r="E377" t="n">
-        <v>1</v>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -9868,10 +10745,13 @@
           <t>53-1002/C</t>
         </is>
       </c>
-      <c r="E378" t="n">
-        <v>1</v>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -9892,10 +10772,13 @@
           <t>51-1099/C</t>
         </is>
       </c>
-      <c r="E379" t="n">
-        <v>1</v>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -9916,10 +10799,13 @@
           <t>51-1063/C</t>
         </is>
       </c>
-      <c r="E380" t="n">
-        <v>1</v>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -9940,10 +10826,13 @@
           <t>32-1033/C</t>
         </is>
       </c>
-      <c r="E381" t="n">
-        <v>1</v>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -9964,10 +10853,17 @@
           <t>1012-8514</t>
         </is>
       </c>
-      <c r="E382" t="n">
-        <v>1</v>
-      </c>
-      <c r="F382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -9988,10 +10884,17 @@
           <t>1681-8822</t>
         </is>
       </c>
-      <c r="E383" t="n">
-        <v>1</v>
-      </c>
-      <c r="F383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -10012,10 +10915,17 @@
           <t>1013-2422</t>
         </is>
       </c>
-      <c r="E384" t="n">
-        <v>1</v>
-      </c>
-      <c r="F384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -10036,10 +10946,17 @@
           <t>1023-2095</t>
         </is>
       </c>
-      <c r="E385" t="n">
-        <v>1</v>
-      </c>
-      <c r="F385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -10060,10 +10977,17 @@
           <t>1729-8849</t>
         </is>
       </c>
-      <c r="E386" t="n">
-        <v>1</v>
-      </c>
-      <c r="F386" t="inlineStr"/>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -10084,10 +11008,17 @@
           <t>11-1728/C</t>
         </is>
       </c>
-      <c r="E387" t="n">
-        <v>1</v>
-      </c>
-      <c r="F387" t="inlineStr"/>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -10108,10 +11039,13 @@
           <t>11-3152/K</t>
         </is>
       </c>
-      <c r="E388" t="n">
-        <v>1</v>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -10132,10 +11066,13 @@
           <t>50-1019/D</t>
         </is>
       </c>
-      <c r="E389" t="n">
-        <v>1</v>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -10156,10 +11093,13 @@
           <t>31-1208/C</t>
         </is>
       </c>
-      <c r="E390" t="n">
-        <v>1</v>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -10180,10 +11120,17 @@
           <t>1026-4485</t>
         </is>
       </c>
-      <c r="E391" t="n">
-        <v>1</v>
-      </c>
-      <c r="F391" t="inlineStr"/>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -10204,10 +11151,13 @@
           <t>11-1295/G8</t>
         </is>
       </c>
-      <c r="E392" t="n">
-        <v>1</v>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -10228,10 +11178,17 @@
           <t>1024-7297</t>
         </is>
       </c>
-      <c r="E393" t="n">
-        <v>1</v>
-      </c>
-      <c r="F393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -10252,10 +11209,13 @@
           <t>44-1404/G8</t>
         </is>
       </c>
-      <c r="E394" t="n">
-        <v>1</v>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -10276,10 +11236,21 @@
           <t>32-1881/G8</t>
         </is>
       </c>
-      <c r="E395" t="n">
-        <v>1</v>
-      </c>
-      <c r="F395" t="inlineStr"/>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -10300,10 +11271,13 @@
           <t>32-1208/G8</t>
         </is>
       </c>
-      <c r="E396" t="n">
-        <v>1</v>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -10324,10 +11298,13 @@
           <t>12-1047/C</t>
         </is>
       </c>
-      <c r="E397" t="n">
-        <v>1</v>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -10348,10 +11325,13 @@
           <t>31-1777/C</t>
         </is>
       </c>
-      <c r="E398" t="n">
-        <v>1</v>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -10372,10 +11352,13 @@
           <t>11-1302/C</t>
         </is>
       </c>
-      <c r="E399" t="n">
-        <v>1</v>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -10396,10 +11379,13 @@
           <t>42-1009/C</t>
         </is>
       </c>
-      <c r="E400" t="n">
-        <v>1</v>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -10420,10 +11406,13 @@
           <t>61-1421/C</t>
         </is>
       </c>
-      <c r="E401" t="n">
-        <v>1</v>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -10444,10 +11433,13 @@
           <t>23-1331/G2</t>
         </is>
       </c>
-      <c r="E402" t="n">
-        <v>1</v>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -10468,10 +11460,13 @@
           <t>44-1306/G2</t>
         </is>
       </c>
-      <c r="E403" t="n">
-        <v>1</v>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -10492,10 +11487,13 @@
           <t>22-1052/G2</t>
         </is>
       </c>
-      <c r="E404" t="n">
-        <v>1</v>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -10516,10 +11514,13 @@
           <t>31-1108/G2</t>
         </is>
       </c>
-      <c r="E405" t="n">
-        <v>1</v>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -10540,10 +11541,13 @@
           <t>11-1541/G2</t>
         </is>
       </c>
-      <c r="E406" t="n">
-        <v>1</v>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -10564,10 +11568,13 @@
           <t>42-1085/G2</t>
         </is>
       </c>
-      <c r="E407" t="n">
-        <v>1</v>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -10588,10 +11595,13 @@
           <t>62-1026/G2</t>
         </is>
       </c>
-      <c r="E408" t="n">
-        <v>1</v>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -10612,10 +11622,17 @@
           <t>1606-7509</t>
         </is>
       </c>
-      <c r="E409" t="n">
-        <v>1</v>
-      </c>
-      <c r="F409" t="inlineStr"/>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -10636,10 +11653,13 @@
           <t>22-1022/G4</t>
         </is>
       </c>
-      <c r="E410" t="n">
-        <v>1</v>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -10660,10 +11680,13 @@
           <t>31-1063/F</t>
         </is>
       </c>
-      <c r="E411" t="n">
-        <v>1</v>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -10684,10 +11707,13 @@
           <t>11-1248/I</t>
         </is>
       </c>
-      <c r="E412" t="n">
-        <v>1</v>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -10708,10 +11734,21 @@
           <t>10-1309/I</t>
         </is>
       </c>
-      <c r="E413" t="n">
-        <v>1</v>
-      </c>
-      <c r="F413" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -10732,10 +11769,13 @@
           <t>11-1068/I</t>
         </is>
       </c>
-      <c r="E414" t="n">
-        <v>1</v>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -10756,10 +11796,13 @@
           <t>42-1060/I</t>
         </is>
       </c>
-      <c r="E415" t="n">
-        <v>1</v>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -10780,10 +11823,13 @@
           <t>31-1038/H</t>
         </is>
       </c>
-      <c r="E416" t="n">
-        <v>1</v>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -10804,10 +11850,21 @@
           <t>11-5370/D</t>
         </is>
       </c>
-      <c r="E417" t="n">
-        <v>1</v>
-      </c>
-      <c r="F417" t="inlineStr"/>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -10828,10 +11885,13 @@
           <t>31-1036/G4</t>
         </is>
       </c>
-      <c r="E418" t="n">
-        <v>1</v>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -10852,10 +11912,17 @@
           <t>61-1023/H</t>
         </is>
       </c>
-      <c r="E419" t="n">
-        <v>1</v>
-      </c>
-      <c r="F419" t="inlineStr"/>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -10876,10 +11943,13 @@
           <t>31-1964/H</t>
         </is>
       </c>
-      <c r="E420" t="n">
-        <v>1</v>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -10900,10 +11970,13 @@
           <t>11-1251/G4</t>
         </is>
       </c>
-      <c r="E421" t="n">
-        <v>1</v>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -10924,10 +11997,21 @@
           <t>10-1585/G4</t>
         </is>
       </c>
-      <c r="E422" t="n">
-        <v>1</v>
-      </c>
-      <c r="F422" t="inlineStr"/>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -10948,10 +12032,13 @@
           <t>31-1040/H</t>
         </is>
       </c>
-      <c r="E423" t="n">
-        <v>1</v>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -10972,10 +12059,13 @@
           <t>21-1060/H</t>
         </is>
       </c>
-      <c r="E424" t="n">
-        <v>1</v>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -10996,10 +12086,13 @@
           <t>44-1645/G0</t>
         </is>
       </c>
-      <c r="E425" t="n">
-        <v>1</v>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -11020,10 +12113,13 @@
           <t>11-5722/G0</t>
         </is>
       </c>
-      <c r="E426" t="n">
-        <v>1</v>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -11044,10 +12140,13 @@
           <t>11-1678/K</t>
         </is>
       </c>
-      <c r="E427" t="n">
-        <v>1</v>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -11068,10 +12167,13 @@
           <t>37-1101/C</t>
         </is>
       </c>
-      <c r="E428" t="n">
-        <v>1</v>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -11092,10 +12194,13 @@
           <t>11-1532/K</t>
         </is>
       </c>
-      <c r="E429" t="n">
-        <v>1</v>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -11116,10 +12221,13 @@
           <t>11-1588/G2</t>
         </is>
       </c>
-      <c r="E430" t="n">
-        <v>1</v>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -11140,10 +12248,13 @@
           <t>11-1037/I</t>
         </is>
       </c>
-      <c r="E431" t="n">
-        <v>1</v>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -11164,10 +12275,13 @@
           <t>11-1009/I</t>
         </is>
       </c>
-      <c r="E432" t="n">
-        <v>1</v>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -11188,10 +12302,13 @@
           <t>31-1152/I</t>
         </is>
       </c>
-      <c r="E433" t="n">
-        <v>1</v>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -11212,10 +12329,13 @@
           <t>11-1581/J</t>
         </is>
       </c>
-      <c r="E434" t="n">
-        <v>1</v>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -11236,10 +12356,13 @@
           <t>11-1672/J</t>
         </is>
       </c>
-      <c r="E435" t="n">
-        <v>1</v>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -11260,10 +12383,13 @@
           <t>22-1031/I</t>
         </is>
       </c>
-      <c r="E436" t="n">
-        <v>1</v>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -11284,10 +12410,17 @@
           <t>1728-7130</t>
         </is>
       </c>
-      <c r="E437" t="n">
-        <v>1</v>
-      </c>
-      <c r="F437" t="inlineStr"/>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -11308,10 +12441,13 @@
           <t>42-1071/C</t>
         </is>
       </c>
-      <c r="E438" t="n">
-        <v>1</v>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -11332,10 +12468,13 @@
           <t>42-1105/G8</t>
         </is>
       </c>
-      <c r="E439" t="n">
-        <v>1</v>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -11356,10 +12495,13 @@
           <t>61-1329/C</t>
         </is>
       </c>
-      <c r="E440" t="n">
-        <v>1</v>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -11380,10 +12522,13 @@
           <t>61-1198/G8</t>
         </is>
       </c>
-      <c r="E441" t="n">
-        <v>1</v>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -11404,10 +12549,13 @@
           <t>61-1011/C</t>
         </is>
       </c>
-      <c r="E442" t="n">
-        <v>1</v>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -11428,10 +12576,13 @@
           <t>62-1035/D</t>
         </is>
       </c>
-      <c r="E443" t="n">
-        <v>1</v>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -11452,10 +12603,13 @@
           <t>61-1376/C</t>
         </is>
       </c>
-      <c r="E444" t="n">
-        <v>1</v>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -11476,10 +12630,13 @@
           <t>62-1086/C</t>
         </is>
       </c>
-      <c r="E445" t="n">
-        <v>1</v>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -11500,10 +12657,13 @@
           <t>54-1034/C</t>
         </is>
       </c>
-      <c r="E446" t="n">
-        <v>1</v>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -11524,10 +12684,13 @@
           <t>50-1188/C</t>
         </is>
       </c>
-      <c r="E447" t="n">
-        <v>1</v>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -11548,10 +12711,13 @@
           <t>51-1671/C</t>
         </is>
       </c>
-      <c r="E448" t="n">
-        <v>1</v>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -11572,10 +12738,13 @@
           <t>11-1150/C</t>
         </is>
       </c>
-      <c r="E449" t="n">
-        <v>1</v>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -11596,10 +12765,13 @@
           <t>65-1121/C</t>
         </is>
       </c>
-      <c r="E450" t="n">
-        <v>1</v>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -11620,10 +12792,13 @@
           <t>11-1159/J</t>
         </is>
       </c>
-      <c r="E451" t="n">
-        <v>1</v>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -11644,10 +12819,17 @@
           <t>31-1140/J</t>
         </is>
       </c>
-      <c r="E452" t="n">
-        <v>1</v>
-      </c>
-      <c r="F452" t="inlineStr"/>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -11668,10 +12850,13 @@
           <t>11-1172/J</t>
         </is>
       </c>
-      <c r="E453" t="n">
-        <v>1</v>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -11692,10 +12877,13 @@
           <t>11-2267/N</t>
         </is>
       </c>
-      <c r="E454" t="n">
-        <v>1</v>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -11716,10 +12904,13 @@
           <t>35-1019/C</t>
         </is>
       </c>
-      <c r="E455" t="n">
-        <v>1</v>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -11740,10 +12931,13 @@
           <t>12-1387/F</t>
         </is>
       </c>
-      <c r="E456" t="n">
-        <v>1</v>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -11764,10 +12958,13 @@
           <t>11-5979/G2</t>
         </is>
       </c>
-      <c r="E457" t="n">
-        <v>1</v>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -11788,10 +12985,13 @@
           <t>11-5363/G2</t>
         </is>
       </c>
-      <c r="E458" t="n">
-        <v>1</v>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -11812,10 +13012,13 @@
           <t>43-1358/G4</t>
         </is>
       </c>
-      <c r="E459" t="n">
-        <v>1</v>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -11836,10 +13039,13 @@
           <t>50-1020/D</t>
         </is>
       </c>
-      <c r="E460" t="n">
-        <v>1</v>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -11860,10 +13066,21 @@
           <t>11-1134/D</t>
         </is>
       </c>
-      <c r="E461" t="n">
-        <v>1</v>
-      </c>
-      <c r="F461" t="inlineStr"/>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -11884,10 +13101,13 @@
           <t>11-4525/N</t>
         </is>
       </c>
-      <c r="E462" t="n">
-        <v>1</v>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -11908,10 +13128,13 @@
           <t>32-1566/F</t>
         </is>
       </c>
-      <c r="E463" t="n">
-        <v>1</v>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -11932,10 +13155,13 @@
           <t>22-1182/G3</t>
         </is>
       </c>
-      <c r="E464" t="n">
-        <v>1</v>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -11956,10 +13182,13 @@
           <t>22-1065/F</t>
         </is>
       </c>
-      <c r="E465" t="n">
-        <v>1</v>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -11980,10 +13209,13 @@
           <t>44-1165/H</t>
         </is>
       </c>
-      <c r="E466" t="n">
-        <v>1</v>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -12004,10 +13236,13 @@
           <t>51-1580/G4</t>
         </is>
       </c>
-      <c r="E467" t="n">
-        <v>1</v>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -12028,10 +13263,13 @@
           <t>23-1066/G4</t>
         </is>
       </c>
-      <c r="E468" t="n">
-        <v>1</v>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -12052,10 +13290,13 @@
           <t>44-1071/B</t>
         </is>
       </c>
-      <c r="E469" t="n">
-        <v>1</v>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -12076,10 +13317,13 @@
           <t>31-2026/G4</t>
         </is>
       </c>
-      <c r="E470" t="n">
-        <v>1</v>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -12100,10 +13344,13 @@
           <t>43-1550/C</t>
         </is>
       </c>
-      <c r="E471" t="n">
-        <v>1</v>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -12124,10 +13371,13 @@
           <t>61-1044/J</t>
         </is>
       </c>
-      <c r="E472" t="n">
-        <v>1</v>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -12148,10 +13398,13 @@
           <t>11-1608/B</t>
         </is>
       </c>
-      <c r="E473" t="n">
-        <v>1</v>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -12172,10 +13425,13 @@
           <t>31-1582/B</t>
         </is>
       </c>
-      <c r="E474" t="n">
-        <v>1</v>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -12196,10 +13452,13 @@
           <t>11-4766/R</t>
         </is>
       </c>
-      <c r="E475" t="n">
-        <v>1</v>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -12220,10 +13479,13 @@
           <t>11-1911/B</t>
         </is>
       </c>
-      <c r="E476" t="n">
-        <v>1</v>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -12244,10 +13506,13 @@
           <t>12-1348/B</t>
         </is>
       </c>
-      <c r="E477" t="n">
-        <v>1</v>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -12268,10 +13533,13 @@
           <t>65-1034/G4</t>
         </is>
       </c>
-      <c r="E478" t="n">
-        <v>1</v>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F478" t="inlineStr"/>
+      <c r="G478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -12292,10 +13560,13 @@
           <t>65-1211/F</t>
         </is>
       </c>
-      <c r="E479" t="n">
-        <v>1</v>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -12316,10 +13587,13 @@
           <t>65-1039/G4</t>
         </is>
       </c>
-      <c r="E480" t="n">
-        <v>1</v>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -12340,10 +13614,13 @@
           <t>33-1068/J</t>
         </is>
       </c>
-      <c r="E481" t="n">
-        <v>1</v>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -12364,10 +13641,13 @@
           <t>11-1283/I</t>
         </is>
       </c>
-      <c r="E482" t="n">
-        <v>1</v>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -12388,10 +13668,13 @@
           <t>31-1157/G2</t>
         </is>
       </c>
-      <c r="E483" t="n">
-        <v>1</v>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -12412,10 +13695,13 @@
           <t>31-1171/G2</t>
         </is>
       </c>
-      <c r="E484" t="n">
-        <v>1</v>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -12436,10 +13722,13 @@
           <t>51-1046/G2</t>
         </is>
       </c>
-      <c r="E485" t="n">
-        <v>1</v>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -12460,10 +13749,13 @@
           <t>11-3320/G2</t>
         </is>
       </c>
-      <c r="E486" t="n">
-        <v>1</v>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -12484,10 +13776,13 @@
           <t>11-1109/G2</t>
         </is>
       </c>
-      <c r="E487" t="n">
-        <v>1</v>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -12508,10 +13803,13 @@
           <t>42-1812/G2</t>
         </is>
       </c>
-      <c r="E488" t="n">
-        <v>1</v>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -12532,10 +13830,13 @@
           <t>11-3110/D</t>
         </is>
       </c>
-      <c r="E489" t="n">
-        <v>1</v>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -12556,10 +13857,13 @@
           <t>23-1360/D</t>
         </is>
       </c>
-      <c r="E490" t="n">
-        <v>1</v>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -12580,10 +13884,13 @@
           <t>32-1308/C</t>
         </is>
       </c>
-      <c r="E491" t="n">
-        <v>1</v>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -12604,10 +13911,13 @@
           <t>43-1038/G4</t>
         </is>
       </c>
-      <c r="E492" t="n">
-        <v>1</v>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -12628,10 +13938,13 @@
           <t>34-1004/C</t>
         </is>
       </c>
-      <c r="E493" t="n">
-        <v>1</v>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -12652,10 +13965,13 @@
           <t>45-1002/C</t>
         </is>
       </c>
-      <c r="E494" t="n">
-        <v>1</v>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -12676,10 +13992,17 @@
           <t>10-1050/C</t>
         </is>
       </c>
-      <c r="E495" t="n">
-        <v>1</v>
-      </c>
-      <c r="F495" t="inlineStr"/>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -12700,10 +14023,13 @@
           <t>44-1070/C</t>
         </is>
       </c>
-      <c r="E496" t="n">
-        <v>1</v>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -12724,10 +14050,13 @@
           <t>31-1096/C</t>
         </is>
       </c>
-      <c r="E497" t="n">
-        <v>1</v>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -12748,10 +14077,13 @@
           <t>11-1736/G4</t>
         </is>
       </c>
-      <c r="E498" t="n">
-        <v>1</v>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -12772,10 +14104,13 @@
           <t>42-1005/C</t>
         </is>
       </c>
-      <c r="E499" t="n">
-        <v>1</v>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -12796,10 +14131,13 @@
           <t>23-1049/C</t>
         </is>
       </c>
-      <c r="E500" t="n">
-        <v>1</v>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -12820,10 +14158,13 @@
           <t>35-1014/F</t>
         </is>
       </c>
-      <c r="E501" t="n">
-        <v>1</v>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -12844,10 +14185,13 @@
           <t>34-1319/G4</t>
         </is>
       </c>
-      <c r="E502" t="n">
-        <v>1</v>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -12868,10 +14212,13 @@
           <t>31-1599/G3</t>
         </is>
       </c>
-      <c r="E503" t="n">
-        <v>1</v>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -12892,10 +14239,21 @@
           <t>32-1891/I</t>
         </is>
       </c>
-      <c r="E504" t="n">
-        <v>1</v>
-      </c>
-      <c r="F504" t="inlineStr"/>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -12916,10 +14274,13 @@
           <t>11-5869/J</t>
         </is>
       </c>
-      <c r="E505" t="n">
-        <v>1</v>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -12940,10 +14301,13 @@
           <t>11-1665/J</t>
         </is>
       </c>
-      <c r="E506" t="n">
-        <v>1</v>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -12964,10 +14328,13 @@
           <t>33-1012/B</t>
         </is>
       </c>
-      <c r="E507" t="n">
-        <v>1</v>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -12988,10 +14355,13 @@
           <t>14-1059/H</t>
         </is>
       </c>
-      <c r="E508" t="n">
-        <v>1</v>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F508" t="inlineStr"/>
+      <c r="G508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -13012,10 +14382,13 @@
           <t>11-1472/H</t>
         </is>
       </c>
-      <c r="E509" t="n">
-        <v>1</v>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F509" t="inlineStr"/>
+      <c r="G509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -13036,10 +14409,13 @@
           <t>32-1687/G</t>
         </is>
       </c>
-      <c r="E510" t="n">
-        <v>1</v>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -13060,10 +14436,13 @@
           <t>11-2888/H</t>
         </is>
       </c>
-      <c r="E511" t="n">
-        <v>1</v>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -13084,10 +14463,13 @@
           <t>42-1025/H</t>
         </is>
       </c>
-      <c r="E512" t="n">
-        <v>1</v>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -13108,10 +14490,13 @@
           <t>34-1013/N</t>
         </is>
       </c>
-      <c r="E513" t="n">
-        <v>1</v>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F513" t="inlineStr"/>
+      <c r="G513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -13132,10 +14517,13 @@
           <t>33-1304/G4</t>
         </is>
       </c>
-      <c r="E514" t="n">
-        <v>1</v>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F514" t="inlineStr"/>
+      <c r="G514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -13156,10 +14544,17 @@
           <t>1025-5931</t>
         </is>
       </c>
-      <c r="E515" t="n">
-        <v>1</v>
-      </c>
-      <c r="F515" t="inlineStr"/>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -13180,10 +14575,13 @@
           <t>53-1191/C</t>
         </is>
       </c>
-      <c r="E516" t="n">
-        <v>1</v>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -13204,10 +14602,13 @@
           <t>53-1001/C</t>
         </is>
       </c>
-      <c r="E517" t="n">
-        <v>1</v>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -13228,10 +14629,13 @@
           <t>53-1003/C</t>
         </is>
       </c>
-      <c r="E518" t="n">
-        <v>1</v>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -13252,10 +14656,13 @@
           <t>11-1141/B</t>
         </is>
       </c>
-      <c r="E519" t="n">
-        <v>1</v>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -13276,10 +14683,13 @@
           <t>31-2054/C</t>
         </is>
       </c>
-      <c r="E520" t="n">
-        <v>1</v>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -13300,10 +14710,13 @@
           <t>11-1140/B</t>
         </is>
       </c>
-      <c r="E521" t="n">
-        <v>1</v>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F521" t="inlineStr"/>
+      <c r="G521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -13324,10 +14737,17 @@
           <t>1015-8383</t>
         </is>
       </c>
-      <c r="E522" t="n">
-        <v>1</v>
-      </c>
-      <c r="F522" t="inlineStr"/>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -13348,10 +14768,13 @@
           <t>33-1237/C</t>
         </is>
       </c>
-      <c r="E523" t="n">
-        <v>1</v>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -13372,10 +14795,13 @@
           <t>33-1337/C</t>
         </is>
       </c>
-      <c r="E524" t="n">
-        <v>1</v>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -13396,10 +14822,13 @@
           <t>33-1149/C</t>
         </is>
       </c>
-      <c r="E525" t="n">
-        <v>1</v>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -13420,10 +14849,13 @@
           <t>33-1005/C</t>
         </is>
       </c>
-      <c r="E526" t="n">
-        <v>1</v>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
       </c>
       <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -13445,9 +14877,10 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -13472,6 +14905,7 @@
         <v>1</v>
       </c>
       <c r="F528" t="inlineStr"/>
+      <c r="G528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -13496,6 +14930,7 @@
         <v>1</v>
       </c>
       <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -13520,6 +14955,7 @@
         <v>1</v>
       </c>
       <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -13544,6 +14980,7 @@
         <v>1</v>
       </c>
       <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -13568,6 +15005,7 @@
         <v>1</v>
       </c>
       <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -13592,6 +15030,7 @@
         <v>1</v>
       </c>
       <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -13616,6 +15055,7 @@
         <v>1</v>
       </c>
       <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -13640,6 +15080,7 @@
         <v>1</v>
       </c>
       <c r="F535" t="inlineStr"/>
+      <c r="G535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -13664,6 +15105,7 @@
         <v>1</v>
       </c>
       <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -13688,6 +15130,7 @@
         <v>1</v>
       </c>
       <c r="F537" t="inlineStr"/>
+      <c r="G537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -13712,6 +15155,7 @@
         <v>1</v>
       </c>
       <c r="F538" t="inlineStr"/>
+      <c r="G538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -13736,6 +15180,7 @@
         <v>1</v>
       </c>
       <c r="F539" t="inlineStr"/>
+      <c r="G539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -13760,6 +15205,7 @@
         <v>1</v>
       </c>
       <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -13784,6 +15230,7 @@
         <v>1</v>
       </c>
       <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -13808,6 +15255,7 @@
         <v>1</v>
       </c>
       <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -13832,6 +15280,7 @@
         <v>1</v>
       </c>
       <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -13856,6 +15305,7 @@
         <v>1</v>
       </c>
       <c r="F544" t="inlineStr"/>
+      <c r="G544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -13880,6 +15330,7 @@
         <v>1</v>
       </c>
       <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -13904,6 +15355,7 @@
         <v>1</v>
       </c>
       <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -13928,6 +15380,7 @@
         <v>1</v>
       </c>
       <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -13952,6 +15405,7 @@
         <v>1</v>
       </c>
       <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -13976,6 +15430,7 @@
         <v>1</v>
       </c>
       <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -14000,6 +15455,7 @@
         <v>1</v>
       </c>
       <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -14024,6 +15480,7 @@
         <v>1</v>
       </c>
       <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -14048,6 +15505,7 @@
         <v>1</v>
       </c>
       <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -14072,6 +15530,7 @@
         <v>1</v>
       </c>
       <c r="F553" t="inlineStr"/>
+      <c r="G553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -14096,6 +15555,7 @@
         <v>1</v>
       </c>
       <c r="F554" t="inlineStr"/>
+      <c r="G554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -14120,6 +15580,7 @@
         <v>1</v>
       </c>
       <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -14144,6 +15605,7 @@
         <v>1</v>
       </c>
       <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -14168,6 +15630,7 @@
         <v>1</v>
       </c>
       <c r="F557" t="inlineStr"/>
+      <c r="G557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -14192,6 +15655,7 @@
         <v>1</v>
       </c>
       <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -14216,6 +15680,7 @@
         <v>1</v>
       </c>
       <c r="F559" t="inlineStr"/>
+      <c r="G559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -14240,6 +15705,7 @@
         <v>1</v>
       </c>
       <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -14264,6 +15730,7 @@
         <v>1</v>
       </c>
       <c r="F561" t="inlineStr"/>
+      <c r="G561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -14288,6 +15755,7 @@
         <v>1</v>
       </c>
       <c r="F562" t="inlineStr"/>
+      <c r="G562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -14312,6 +15780,7 @@
         <v>1</v>
       </c>
       <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -14336,6 +15805,7 @@
         <v>1</v>
       </c>
       <c r="F564" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -14360,6 +15830,7 @@
         <v>1</v>
       </c>
       <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -14384,6 +15855,7 @@
         <v>1</v>
       </c>
       <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -14408,6 +15880,7 @@
         <v>1</v>
       </c>
       <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -14432,6 +15905,7 @@
         <v>1</v>
       </c>
       <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -14456,6 +15930,7 @@
         <v>1</v>
       </c>
       <c r="F569" t="inlineStr"/>
+      <c r="G569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -14480,6 +15955,7 @@
         <v>1</v>
       </c>
       <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -14504,6 +15980,7 @@
         <v>1</v>
       </c>
       <c r="F571" t="inlineStr"/>
+      <c r="G571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -14528,6 +16005,7 @@
         <v>1</v>
       </c>
       <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -14552,6 +16030,7 @@
         <v>1</v>
       </c>
       <c r="F573" t="inlineStr"/>
+      <c r="G573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -14576,6 +16055,7 @@
         <v>1</v>
       </c>
       <c r="F574" t="inlineStr"/>
+      <c r="G574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -14600,6 +16080,7 @@
         <v>1</v>
       </c>
       <c r="F575" t="inlineStr"/>
+      <c r="G575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -14624,6 +16105,7 @@
         <v>1</v>
       </c>
       <c r="F576" t="inlineStr"/>
+      <c r="G576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -14648,6 +16130,7 @@
         <v>1</v>
       </c>
       <c r="F577" t="inlineStr"/>
+      <c r="G577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -14672,6 +16155,7 @@
         <v>1</v>
       </c>
       <c r="F578" t="inlineStr"/>
+      <c r="G578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -14696,6 +16180,7 @@
         <v>1</v>
       </c>
       <c r="F579" t="inlineStr"/>
+      <c r="G579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -14720,6 +16205,7 @@
         <v>1</v>
       </c>
       <c r="F580" t="inlineStr"/>
+      <c r="G580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -14744,6 +16230,7 @@
         <v>1</v>
       </c>
       <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -14768,6 +16255,7 @@
         <v>1</v>
       </c>
       <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -14792,6 +16280,7 @@
         <v>1</v>
       </c>
       <c r="F583" t="inlineStr"/>
+      <c r="G583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -14816,6 +16305,7 @@
         <v>1</v>
       </c>
       <c r="F584" t="inlineStr"/>
+      <c r="G584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -14840,6 +16330,7 @@
         <v>1</v>
       </c>
       <c r="F585" t="inlineStr"/>
+      <c r="G585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -14864,6 +16355,7 @@
         <v>1</v>
       </c>
       <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -14888,6 +16380,7 @@
         <v>1</v>
       </c>
       <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -14912,6 +16405,7 @@
         <v>1</v>
       </c>
       <c r="F588" t="inlineStr"/>
+      <c r="G588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -14936,6 +16430,7 @@
         <v>1</v>
       </c>
       <c r="F589" t="inlineStr"/>
+      <c r="G589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -14960,6 +16455,7 @@
         <v>1</v>
       </c>
       <c r="F590" t="inlineStr"/>
+      <c r="G590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -14984,6 +16480,7 @@
         <v>1</v>
       </c>
       <c r="F591" t="inlineStr"/>
+      <c r="G591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -15008,6 +16505,7 @@
         <v>1</v>
       </c>
       <c r="F592" t="inlineStr"/>
+      <c r="G592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -15032,6 +16530,7 @@
         <v>1</v>
       </c>
       <c r="F593" t="inlineStr"/>
+      <c r="G593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -15056,6 +16555,7 @@
         <v>1</v>
       </c>
       <c r="F594" t="inlineStr"/>
+      <c r="G594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -15080,6 +16580,7 @@
         <v>1</v>
       </c>
       <c r="F595" t="inlineStr"/>
+      <c r="G595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -15104,6 +16605,7 @@
         <v>1</v>
       </c>
       <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -15128,6 +16630,7 @@
         <v>1</v>
       </c>
       <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -15152,6 +16655,7 @@
         <v>1</v>
       </c>
       <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -15176,6 +16680,7 @@
         <v>1</v>
       </c>
       <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -15200,6 +16705,7 @@
         <v>1</v>
       </c>
       <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -15224,6 +16730,7 @@
         <v>1</v>
       </c>
       <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -15248,6 +16755,7 @@
         <v>1</v>
       </c>
       <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -15272,6 +16780,7 @@
         <v>1</v>
       </c>
       <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -15296,6 +16805,7 @@
         <v>1</v>
       </c>
       <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -15320,6 +16830,7 @@
         <v>1</v>
       </c>
       <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -15344,6 +16855,7 @@
         <v>1</v>
       </c>
       <c r="F606" t="inlineStr"/>
+      <c r="G606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -15368,6 +16880,7 @@
         <v>1</v>
       </c>
       <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -15392,6 +16905,7 @@
         <v>1</v>
       </c>
       <c r="F608" t="inlineStr"/>
+      <c r="G608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -15416,6 +16930,7 @@
         <v>1</v>
       </c>
       <c r="F609" t="inlineStr"/>
+      <c r="G609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -15440,6 +16955,7 @@
         <v>1</v>
       </c>
       <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -15464,6 +16980,7 @@
         <v>1</v>
       </c>
       <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -15488,6 +17005,7 @@
         <v>1</v>
       </c>
       <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -15512,6 +17030,7 @@
         <v>1</v>
       </c>
       <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -15536,6 +17055,7 @@
         <v>1</v>
       </c>
       <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
